--- a/raw_data/20200818_saline/20200818_Sensor0_Test_24.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_24.xlsx
@@ -1,900 +1,1316 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BD91CF-7C70-4088-A983-A8734D7BCBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>20702.914137</v>
       </c>
       <c r="B2" s="1">
-        <v>5.750809</v>
+        <v>5.7508090000000003</v>
       </c>
       <c r="C2" s="1">
-        <v>899.084000</v>
+        <v>899.08399999999995</v>
       </c>
       <c r="D2" s="1">
-        <v>-194.707000</v>
+        <v>-194.70699999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>20713.281019</v>
+        <v>20713.281018999998</v>
       </c>
       <c r="G2" s="1">
-        <v>5.753689</v>
+        <v>5.7536889999999996</v>
       </c>
       <c r="H2" s="1">
-        <v>915.777000</v>
+        <v>915.77700000000004</v>
       </c>
       <c r="I2" s="1">
-        <v>-165.271000</v>
+        <v>-165.27099999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>20723.376621</v>
+        <v>20723.376620999999</v>
       </c>
       <c r="L2" s="1">
         <v>5.756494</v>
       </c>
       <c r="M2" s="1">
-        <v>937.937000</v>
+        <v>937.93700000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.382000</v>
+        <v>-118.38200000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>20733.871441</v>
+        <v>20733.871440999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>5.759409</v>
+        <v>5.7594089999999998</v>
       </c>
       <c r="R2" s="1">
-        <v>944.358000</v>
+        <v>944.35799999999995</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.358000</v>
+        <v>-103.358</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>20744.769538</v>
       </c>
       <c r="V2" s="1">
-        <v>5.762436</v>
+        <v>5.7624360000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>950.774000</v>
+        <v>950.774</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.796200</v>
+        <v>-89.796199999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>20755.506962</v>
+        <v>20755.506961999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>5.765419</v>
+        <v>5.7654189999999996</v>
       </c>
       <c r="AB2" s="1">
-        <v>958.010000</v>
+        <v>958.01</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.514900</v>
+        <v>-80.514899999999997</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>20765.757751</v>
+        <v>20765.757751000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>5.768266</v>
+        <v>5.7682659999999997</v>
       </c>
       <c r="AG2" s="1">
-        <v>963.028000</v>
+        <v>963.02800000000002</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.270700</v>
+        <v>-80.270700000000005</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>20775.628136</v>
+        <v>20775.628135999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>5.771008</v>
+        <v>5.7710080000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>970.979000</v>
+        <v>970.97900000000004</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.238300</v>
+        <v>-88.238299999999995</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>20785.881932</v>
       </c>
       <c r="AP2" s="1">
-        <v>5.773856</v>
+        <v>5.7738560000000003</v>
       </c>
       <c r="AQ2" s="1">
-        <v>980.307000</v>
+        <v>980.30700000000002</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.425000</v>
+        <v>-103.425</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>20796.889148</v>
+        <v>20796.889147999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>5.776914</v>
+        <v>5.7769139999999997</v>
       </c>
       <c r="AV2" s="1">
-        <v>991.837000</v>
+        <v>991.83699999999999</v>
       </c>
       <c r="AW2" s="1">
-        <v>-125.302000</v>
+        <v>-125.30200000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>20807.676638</v>
+        <v>20807.676638000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>5.779910</v>
+        <v>5.7799100000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1001.580000</v>
+        <v>1001.58</v>
       </c>
       <c r="BB2" s="1">
-        <v>-144.250000</v>
+        <v>-144.25</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>20818.287580</v>
+        <v>20818.28758</v>
       </c>
       <c r="BE2" s="1">
-        <v>5.782858</v>
+        <v>5.7828580000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1047.370000</v>
+        <v>1047.3699999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-229.895000</v>
+        <v>-229.89500000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>20829.225825</v>
+        <v>20829.225825000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>5.785896</v>
+        <v>5.7858960000000002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1127.630000</v>
+        <v>1127.6300000000001</v>
       </c>
       <c r="BL2" s="1">
-        <v>-367.225000</v>
+        <v>-367.22500000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>20840.052499</v>
+        <v>20840.052499000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>5.788903</v>
+        <v>5.7889030000000004</v>
       </c>
       <c r="BP2" s="1">
-        <v>1260.260000</v>
+        <v>1260.26</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-579.393000</v>
+        <v>-579.39300000000003</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>20850.396070</v>
+        <v>20850.396069999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>5.791777</v>
+        <v>5.7917769999999997</v>
       </c>
       <c r="BU2" s="1">
-        <v>1408.850000</v>
+        <v>1408.85</v>
       </c>
       <c r="BV2" s="1">
-        <v>-806.312000</v>
+        <v>-806.31200000000001</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>20861.098256</v>
+        <v>20861.098256000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>5.794750</v>
+        <v>5.7947499999999996</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1572.760000</v>
+        <v>1572.76</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1042.810000</v>
+        <v>-1042.81</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>20872.040610</v>
+        <v>20872.04061</v>
       </c>
       <c r="CD2" s="1">
-        <v>5.797789</v>
+        <v>5.7977889999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1985.730000</v>
+        <v>1985.73</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1595.780000</v>
+        <v>-1595.78</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>20703.311464</v>
+        <v>20703.311463999999</v>
       </c>
       <c r="B3" s="1">
-        <v>5.750920</v>
+        <v>5.7509199999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>899.010000</v>
+        <v>899.01</v>
       </c>
       <c r="D3" s="1">
-        <v>-194.772000</v>
+        <v>-194.77199999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>20713.625738</v>
+        <v>20713.625737999999</v>
       </c>
       <c r="G3" s="1">
-        <v>5.753785</v>
+        <v>5.7537849999999997</v>
       </c>
       <c r="H3" s="1">
-        <v>915.602000</v>
+        <v>915.60199999999998</v>
       </c>
       <c r="I3" s="1">
-        <v>-165.174000</v>
+        <v>-165.17400000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>20723.752099</v>
+        <v>20723.752099000001</v>
       </c>
       <c r="L3" s="1">
-        <v>5.756598</v>
+        <v>5.7565980000000003</v>
       </c>
       <c r="M3" s="1">
-        <v>937.820000</v>
+        <v>937.82</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.295000</v>
+        <v>-118.295</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>20734.235505</v>
+        <v>20734.235505000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>5.759510</v>
+        <v>5.7595099999999997</v>
       </c>
       <c r="R3" s="1">
-        <v>944.345000</v>
+        <v>944.34500000000003</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.308000</v>
+        <v>-103.30800000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>20745.448591</v>
       </c>
       <c r="V3" s="1">
-        <v>5.762625</v>
+        <v>5.7626249999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>950.792000</v>
+        <v>950.79200000000003</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.741000</v>
+        <v>-89.741</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>20755.616050</v>
+        <v>20755.616050000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>5.765449</v>
+        <v>5.7654490000000003</v>
       </c>
       <c r="AB3" s="1">
-        <v>957.958000</v>
+        <v>957.95799999999997</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.418900</v>
+        <v>-80.418899999999994</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>20766.169926</v>
+        <v>20766.169925999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>5.768381</v>
+        <v>5.7683809999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>963.090000</v>
+        <v>963.09</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.285200</v>
+        <v>-80.285200000000003</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>20775.977817</v>
+        <v>20775.977816999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>5.771105</v>
+        <v>5.7711050000000004</v>
       </c>
       <c r="AL3" s="1">
-        <v>970.991000</v>
+        <v>970.99099999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.262200</v>
+        <v>-88.262200000000007</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>20786.248476</v>
+        <v>20786.248476000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>5.773958</v>
+        <v>5.7739580000000004</v>
       </c>
       <c r="AQ3" s="1">
-        <v>980.296000</v>
+        <v>980.29600000000005</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.440000</v>
+        <v>-103.44</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>20797.274539</v>
+        <v>20797.274538999998</v>
       </c>
       <c r="AU3" s="1">
-        <v>5.777021</v>
+        <v>5.7770210000000004</v>
       </c>
       <c r="AV3" s="1">
-        <v>991.845000</v>
+        <v>991.84500000000003</v>
       </c>
       <c r="AW3" s="1">
-        <v>-125.291000</v>
+        <v>-125.291</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>20808.095757</v>
+        <v>20808.095756999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>5.780027</v>
+        <v>5.7800269999999996</v>
       </c>
       <c r="BA3" s="1">
-        <v>1001.590000</v>
+        <v>1001.59</v>
       </c>
       <c r="BB3" s="1">
-        <v>-144.209000</v>
+        <v>-144.209</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>20818.700223</v>
@@ -903,28 +1319,28 @@
         <v>5.782972</v>
       </c>
       <c r="BF3" s="1">
-        <v>1047.390000</v>
+        <v>1047.3900000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-229.910000</v>
+        <v>-229.91</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>20829.695041</v>
+        <v>20829.695040999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>5.786026</v>
+        <v>5.7860259999999997</v>
       </c>
       <c r="BK3" s="1">
-        <v>1127.630000</v>
+        <v>1127.6300000000001</v>
       </c>
       <c r="BL3" s="1">
-        <v>-367.226000</v>
+        <v>-367.226</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>20840.475091</v>
@@ -933,769 +1349,769 @@
         <v>5.789021</v>
       </c>
       <c r="BP3" s="1">
-        <v>1260.270000</v>
+        <v>1260.27</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-579.419000</v>
+        <v>-579.41899999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>20850.847430</v>
+        <v>20850.847430000002</v>
       </c>
       <c r="BT3" s="1">
-        <v>5.791902</v>
+        <v>5.7919020000000003</v>
       </c>
       <c r="BU3" s="1">
-        <v>1408.860000</v>
+        <v>1408.86</v>
       </c>
       <c r="BV3" s="1">
-        <v>-806.150000</v>
+        <v>-806.15</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>20861.562007</v>
       </c>
       <c r="BY3" s="1">
-        <v>5.794878</v>
+        <v>5.7948779999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1572.750000</v>
+        <v>1572.75</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1042.960000</v>
+        <v>-1042.96</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>20872.952663</v>
       </c>
       <c r="CD3" s="1">
-        <v>5.798042</v>
+        <v>5.7980419999999997</v>
       </c>
       <c r="CE3" s="1">
-        <v>1986.420000</v>
+        <v>1986.42</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1594.320000</v>
+        <v>-1594.32</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>20703.653671</v>
       </c>
       <c r="B4" s="1">
-        <v>5.751015</v>
+        <v>5.7510149999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>899.039000</v>
+        <v>899.03899999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-194.759000</v>
+        <v>-194.75899999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>20713.971299</v>
+        <v>20713.971299000001</v>
       </c>
       <c r="G4" s="1">
-        <v>5.753881</v>
+        <v>5.7538809999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>916.133000</v>
+        <v>916.13300000000004</v>
       </c>
       <c r="I4" s="1">
-        <v>-165.413000</v>
+        <v>-165.41300000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>20724.405292</v>
+        <v>20724.405291999999</v>
       </c>
       <c r="L4" s="1">
-        <v>5.756779</v>
+        <v>5.7567789999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>937.874000</v>
+        <v>937.87400000000002</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.318000</v>
+        <v>-118.318</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>20734.878815</v>
       </c>
       <c r="Q4" s="1">
-        <v>5.759689</v>
+        <v>5.7596889999999998</v>
       </c>
       <c r="R4" s="1">
-        <v>944.392000</v>
+        <v>944.39200000000005</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.273000</v>
+        <v>-103.273</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>20745.835360</v>
+        <v>20745.835360000001</v>
       </c>
       <c r="V4" s="1">
-        <v>5.762732</v>
+        <v>5.7627319999999997</v>
       </c>
       <c r="W4" s="1">
-        <v>950.775000</v>
+        <v>950.77499999999998</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.729000</v>
+        <v>-89.728999999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>20755.955811</v>
       </c>
       <c r="AA4" s="1">
-        <v>5.765543</v>
+        <v>5.7655430000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>958.055000</v>
+        <v>958.05499999999995</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.499800</v>
+        <v>-80.499799999999993</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>20766.509188</v>
       </c>
       <c r="AF4" s="1">
-        <v>5.768475</v>
+        <v>5.7684749999999996</v>
       </c>
       <c r="AG4" s="1">
-        <v>962.944000</v>
+        <v>962.94399999999996</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.235300</v>
+        <v>-80.235299999999995</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>20776.330471</v>
+        <v>20776.330471000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>5.771203</v>
+        <v>5.7712029999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>971.003000</v>
+        <v>971.00300000000004</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.256500</v>
+        <v>-88.256500000000003</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>20786.731799</v>
+        <v>20786.731799000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>5.774092</v>
+        <v>5.7740919999999996</v>
       </c>
       <c r="AQ4" s="1">
-        <v>980.293000</v>
+        <v>980.29300000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.410000</v>
+        <v>-103.41</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>20797.684268</v>
+        <v>20797.684268000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>5.777135</v>
+        <v>5.7771350000000004</v>
       </c>
       <c r="AV4" s="1">
-        <v>991.837000</v>
+        <v>991.83699999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-125.285000</v>
+        <v>-125.285</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>20808.414685</v>
       </c>
       <c r="AZ4" s="1">
-        <v>5.780115</v>
+        <v>5.7801150000000003</v>
       </c>
       <c r="BA4" s="1">
-        <v>1001.590000</v>
+        <v>1001.59</v>
       </c>
       <c r="BB4" s="1">
-        <v>-144.198000</v>
+        <v>-144.19800000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>20819.037536</v>
       </c>
       <c r="BE4" s="1">
-        <v>5.783066</v>
+        <v>5.7830659999999998</v>
       </c>
       <c r="BF4" s="1">
-        <v>1047.360000</v>
+        <v>1047.3599999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-229.895000</v>
+        <v>-229.89500000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>20830.094396</v>
       </c>
       <c r="BJ4" s="1">
-        <v>5.786137</v>
+        <v>5.7861370000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1127.630000</v>
+        <v>1127.6300000000001</v>
       </c>
       <c r="BL4" s="1">
-        <v>-367.232000</v>
+        <v>-367.23200000000003</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>20840.870899</v>
+        <v>20840.870899000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>5.789131</v>
+        <v>5.7891310000000002</v>
       </c>
       <c r="BP4" s="1">
-        <v>1260.250000</v>
+        <v>1260.25</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-579.411000</v>
+        <v>-579.41099999999994</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>20851.272996</v>
       </c>
       <c r="BT4" s="1">
-        <v>5.792020</v>
+        <v>5.7920199999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1408.950000</v>
+        <v>1408.95</v>
       </c>
       <c r="BV4" s="1">
-        <v>-806.059000</v>
+        <v>-806.05899999999997</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>20862.007414</v>
       </c>
       <c r="BY4" s="1">
-        <v>5.795002</v>
+        <v>5.7950020000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1572.760000</v>
+        <v>1572.76</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1042.740000</v>
+        <v>-1042.74</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>20873.152025</v>
+        <v>20873.152024999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>5.798098</v>
+        <v>5.7980980000000004</v>
       </c>
       <c r="CE4" s="1">
-        <v>1985.570000</v>
+        <v>1985.57</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1595.500000</v>
+        <v>-1595.5</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>20704.312358</v>
+        <v>20704.312357999999</v>
       </c>
       <c r="B5" s="1">
-        <v>5.751198</v>
+        <v>5.7511979999999996</v>
       </c>
       <c r="C5" s="1">
-        <v>899.055000</v>
+        <v>899.05499999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-194.923000</v>
+        <v>-194.923</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>20714.615272</v>
+        <v>20714.615271999999</v>
       </c>
       <c r="G5" s="1">
-        <v>5.754060</v>
+        <v>5.75406</v>
       </c>
       <c r="H5" s="1">
-        <v>915.788000</v>
+        <v>915.78800000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-164.976000</v>
+        <v>-164.976</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>20724.789691</v>
+        <v>20724.789691000002</v>
       </c>
       <c r="L5" s="1">
-        <v>5.756886</v>
+        <v>5.7568859999999997</v>
       </c>
       <c r="M5" s="1">
-        <v>937.892000</v>
+        <v>937.89200000000005</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.469000</v>
+        <v>-118.46899999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>20735.277597</v>
       </c>
       <c r="Q5" s="1">
-        <v>5.759799</v>
+        <v>5.7597990000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>944.401000</v>
+        <v>944.40099999999995</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.339000</v>
+        <v>-103.339</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>20746.180159</v>
       </c>
       <c r="V5" s="1">
-        <v>5.762828</v>
+        <v>5.7628279999999998</v>
       </c>
       <c r="W5" s="1">
-        <v>950.828000</v>
+        <v>950.82799999999997</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.774400</v>
+        <v>-89.7744</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>20756.304033</v>
       </c>
       <c r="AA5" s="1">
-        <v>5.765640</v>
+        <v>5.7656400000000003</v>
       </c>
       <c r="AB5" s="1">
-        <v>957.938000</v>
+        <v>957.93799999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.561300</v>
+        <v>-80.561300000000003</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>20766.857876</v>
+        <v>20766.857875999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>5.768572</v>
+        <v>5.7685719999999998</v>
       </c>
       <c r="AG5" s="1">
-        <v>962.986000</v>
+        <v>962.98599999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.172200</v>
+        <v>-80.172200000000004</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>20776.743144</v>
       </c>
       <c r="AK5" s="1">
-        <v>5.771318</v>
+        <v>5.7713179999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>970.973000</v>
+        <v>970.97299999999996</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.233100</v>
+        <v>-88.233099999999993</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>20787.325322</v>
+        <v>20787.325322000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>5.774257</v>
+        <v>5.7742570000000004</v>
       </c>
       <c r="AQ5" s="1">
-        <v>980.295000</v>
+        <v>980.29499999999996</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.421000</v>
+        <v>-103.42100000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>20798.005147</v>
       </c>
       <c r="AU5" s="1">
-        <v>5.777224</v>
+        <v>5.7772240000000004</v>
       </c>
       <c r="AV5" s="1">
-        <v>991.846000</v>
+        <v>991.846</v>
       </c>
       <c r="AW5" s="1">
-        <v>-125.302000</v>
+        <v>-125.30200000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>20808.774284</v>
+        <v>20808.774283999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>5.780215</v>
+        <v>5.7802150000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1001.570000</v>
+        <v>1001.57</v>
       </c>
       <c r="BB5" s="1">
-        <v>-144.213000</v>
+        <v>-144.21299999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>20819.398131</v>
+        <v>20819.398131000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>5.783166</v>
+        <v>5.7831659999999996</v>
       </c>
       <c r="BF5" s="1">
-        <v>1047.390000</v>
+        <v>1047.3900000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-229.905000</v>
+        <v>-229.905</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>20830.470289</v>
+        <v>20830.470289000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>5.786242</v>
+        <v>5.7862419999999997</v>
       </c>
       <c r="BK5" s="1">
-        <v>1127.650000</v>
+        <v>1127.6500000000001</v>
       </c>
       <c r="BL5" s="1">
-        <v>-367.253000</v>
+        <v>-367.25299999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>20841.289057</v>
+        <v>20841.289057000002</v>
       </c>
       <c r="BO5" s="1">
-        <v>5.789247</v>
+        <v>5.7892469999999996</v>
       </c>
       <c r="BP5" s="1">
-        <v>1260.260000</v>
+        <v>1260.26</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-579.452000</v>
+        <v>-579.452</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>20851.692435</v>
+        <v>20851.692435000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>5.792137</v>
+        <v>5.7921370000000003</v>
       </c>
       <c r="BU5" s="1">
-        <v>1409.020000</v>
+        <v>1409.02</v>
       </c>
       <c r="BV5" s="1">
-        <v>-805.951000</v>
+        <v>-805.95100000000002</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>20862.440935</v>
+        <v>20862.440934999999</v>
       </c>
       <c r="BY5" s="1">
-        <v>5.795122</v>
+        <v>5.7951220000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1572.820000</v>
+        <v>1572.82</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1042.910000</v>
+        <v>-1042.9100000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>20873.671334</v>
+        <v>20873.671333999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>5.798242</v>
+        <v>5.7982420000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1986.890000</v>
+        <v>1986.89</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1596.300000</v>
+        <v>-1596.3</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>20704.679398</v>
       </c>
       <c r="B6" s="1">
-        <v>5.751300</v>
+        <v>5.7512999999999996</v>
       </c>
       <c r="C6" s="1">
-        <v>899.158000</v>
+        <v>899.15800000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>-194.764000</v>
+        <v>-194.76400000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>20715.007097</v>
+        <v>20715.007097000002</v>
       </c>
       <c r="G6" s="1">
-        <v>5.754169</v>
+        <v>5.7541690000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>915.863000</v>
+        <v>915.86300000000006</v>
       </c>
       <c r="I6" s="1">
-        <v>-165.104000</v>
+        <v>-165.10400000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>20725.133451</v>
+        <v>20725.133451000002</v>
       </c>
       <c r="L6" s="1">
-        <v>5.756982</v>
+        <v>5.7569819999999998</v>
       </c>
       <c r="M6" s="1">
-        <v>937.833000</v>
+        <v>937.83299999999997</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.321000</v>
+        <v>-118.321</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>20735.742845</v>
+        <v>20735.742845000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>5.759929</v>
+        <v>5.7599289999999996</v>
       </c>
       <c r="R6" s="1">
-        <v>944.364000</v>
+        <v>944.36400000000003</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.366000</v>
+        <v>-103.366</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>20746.522926</v>
+        <v>20746.522926000001</v>
       </c>
       <c r="V6" s="1">
-        <v>5.762923</v>
+        <v>5.7629229999999998</v>
       </c>
       <c r="W6" s="1">
-        <v>950.751000</v>
+        <v>950.75099999999998</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.752500</v>
+        <v>-89.752499999999998</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>20756.717667</v>
+        <v>20756.717667000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>5.765755</v>
+        <v>5.7657550000000004</v>
       </c>
       <c r="AB6" s="1">
-        <v>957.948000</v>
+        <v>957.94799999999998</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.581300</v>
+        <v>-80.581299999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>20767.264132</v>
       </c>
       <c r="AF6" s="1">
-        <v>5.768684</v>
+        <v>5.7686840000000004</v>
       </c>
       <c r="AG6" s="1">
-        <v>962.962000</v>
+        <v>962.96199999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.240700</v>
+        <v>-80.240700000000004</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>20777.023878</v>
       </c>
       <c r="AK6" s="1">
-        <v>5.771396</v>
+        <v>5.7713960000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>970.989000</v>
+        <v>970.98900000000003</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.225500</v>
+        <v>-88.225499999999997</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>20787.716632</v>
       </c>
       <c r="AP6" s="1">
-        <v>5.774366</v>
+        <v>5.7743659999999997</v>
       </c>
       <c r="AQ6" s="1">
-        <v>980.287000</v>
+        <v>980.28700000000003</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.449000</v>
+        <v>-103.449</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>20798.367722</v>
+        <v>20798.367721999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>5.777324</v>
+        <v>5.7773240000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>991.852000</v>
+        <v>991.85199999999998</v>
       </c>
       <c r="AW6" s="1">
-        <v>-125.296000</v>
+        <v>-125.29600000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>20809.130444</v>
+        <v>20809.130443999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>5.780314</v>
+        <v>5.7803139999999997</v>
       </c>
       <c r="BA6" s="1">
-        <v>1001.550000</v>
+        <v>1001.55</v>
       </c>
       <c r="BB6" s="1">
-        <v>-144.249000</v>
+        <v>-144.249</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>20819.759182</v>
+        <v>20819.759182000002</v>
       </c>
       <c r="BE6" s="1">
-        <v>5.783266</v>
+        <v>5.7832660000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1047.390000</v>
+        <v>1047.3900000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-229.908000</v>
+        <v>-229.90799999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>20831.219285</v>
+        <v>20831.219284999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>5.786450</v>
+        <v>5.7864500000000003</v>
       </c>
       <c r="BK6" s="1">
-        <v>1127.650000</v>
+        <v>1127.6500000000001</v>
       </c>
       <c r="BL6" s="1">
-        <v>-367.229000</v>
+        <v>-367.22899999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>20841.688832</v>
@@ -1704,75 +2120,75 @@
         <v>5.789358</v>
       </c>
       <c r="BP6" s="1">
-        <v>1260.250000</v>
+        <v>1260.25</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-579.474000</v>
+        <v>-579.47400000000005</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>20852.102307</v>
+        <v>20852.102307000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>5.792251</v>
+        <v>5.7922510000000003</v>
       </c>
       <c r="BU6" s="1">
-        <v>1409.200000</v>
+        <v>1409.2</v>
       </c>
       <c r="BV6" s="1">
-        <v>-805.898000</v>
+        <v>-805.89800000000002</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>20862.862021</v>
+        <v>20862.862021000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>5.795239</v>
+        <v>5.7952389999999996</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1572.750000</v>
+        <v>1572.75</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1042.960000</v>
+        <v>-1042.96</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>20874.490573</v>
+        <v>20874.490572999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>5.798470</v>
+        <v>5.79847</v>
       </c>
       <c r="CE6" s="1">
-        <v>1987.640000</v>
+        <v>1987.64</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1594.930000</v>
+        <v>-1594.93</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>20705.023125</v>
       </c>
       <c r="B7" s="1">
-        <v>5.751395</v>
+        <v>5.7513949999999996</v>
       </c>
       <c r="C7" s="1">
-        <v>899.165000</v>
+        <v>899.16499999999996</v>
       </c>
       <c r="D7" s="1">
-        <v>-194.858000</v>
+        <v>-194.858</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>20715.350359</v>
@@ -1781,1932 +2197,1932 @@
         <v>5.754264</v>
       </c>
       <c r="H7" s="1">
-        <v>915.963000</v>
+        <v>915.96299999999997</v>
       </c>
       <c r="I7" s="1">
-        <v>-165.007000</v>
+        <v>-165.00700000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>20725.477179</v>
+        <v>20725.477179000001</v>
       </c>
       <c r="L7" s="1">
-        <v>5.757077</v>
+        <v>5.7570769999999998</v>
       </c>
       <c r="M7" s="1">
-        <v>937.864000</v>
+        <v>937.86400000000003</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.445000</v>
+        <v>-118.44499999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>20735.975469</v>
+        <v>20735.975469000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>5.759993</v>
+        <v>5.7599929999999997</v>
       </c>
       <c r="R7" s="1">
-        <v>944.367000</v>
+        <v>944.36699999999996</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.350000</v>
+        <v>-103.35</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>20746.940063</v>
+        <v>20746.940062999998</v>
       </c>
       <c r="V7" s="1">
         <v>5.763039</v>
       </c>
       <c r="W7" s="1">
-        <v>950.831000</v>
+        <v>950.83100000000002</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.720400</v>
+        <v>-89.720399999999998</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>20757.008817</v>
+        <v>20757.008817000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>5.765836</v>
+        <v>5.7658360000000002</v>
       </c>
       <c r="AB7" s="1">
-        <v>957.946000</v>
+        <v>957.94600000000003</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.515700</v>
+        <v>-80.515699999999995</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>20767.548802</v>
+        <v>20767.548802000001</v>
       </c>
       <c r="AF7" s="1">
         <v>5.768764</v>
       </c>
       <c r="AG7" s="1">
-        <v>963.002000</v>
+        <v>963.00199999999995</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.314900</v>
+        <v>-80.314899999999994</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>20777.373558</v>
+        <v>20777.373557999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>5.771493</v>
+        <v>5.7714930000000004</v>
       </c>
       <c r="AL7" s="1">
-        <v>971.013000</v>
+        <v>971.01300000000003</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.248100</v>
+        <v>-88.248099999999994</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>20788.095081</v>
+        <v>20788.095080999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>5.774471</v>
+        <v>5.7744710000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>980.266000</v>
+        <v>980.26599999999996</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.440000</v>
+        <v>-103.44</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>20798.734292</v>
+        <v>20798.734292000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>5.777426</v>
+        <v>5.7774260000000002</v>
       </c>
       <c r="AV7" s="1">
-        <v>991.846000</v>
+        <v>991.846</v>
       </c>
       <c r="AW7" s="1">
-        <v>-125.300000</v>
+        <v>-125.3</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>20809.860027</v>
+        <v>20809.860026999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>5.780517</v>
+        <v>5.7805169999999997</v>
       </c>
       <c r="BA7" s="1">
-        <v>1001.590000</v>
+        <v>1001.59</v>
       </c>
       <c r="BB7" s="1">
-        <v>-144.210000</v>
+        <v>-144.21</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>20820.483342</v>
       </c>
       <c r="BE7" s="1">
-        <v>5.783468</v>
+        <v>5.7834680000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1047.400000</v>
+        <v>1047.4000000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-229.919000</v>
+        <v>-229.91900000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>20831.594294</v>
+        <v>20831.594293999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>5.786554</v>
+        <v>5.7865539999999998</v>
       </c>
       <c r="BK7" s="1">
-        <v>1127.650000</v>
+        <v>1127.6500000000001</v>
       </c>
       <c r="BL7" s="1">
-        <v>-367.233000</v>
+        <v>-367.233</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>20842.110928</v>
+        <v>20842.110927999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>5.789475</v>
+        <v>5.7894750000000004</v>
       </c>
       <c r="BP7" s="1">
-        <v>1260.270000</v>
+        <v>1260.27</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-579.480000</v>
+        <v>-579.48</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>20852.518451</v>
       </c>
       <c r="BT7" s="1">
-        <v>5.792366</v>
+        <v>5.7923660000000003</v>
       </c>
       <c r="BU7" s="1">
-        <v>1409.290000</v>
+        <v>1409.29</v>
       </c>
       <c r="BV7" s="1">
-        <v>-805.848000</v>
+        <v>-805.84799999999996</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>20863.591347</v>
+        <v>20863.591347000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>5.795442</v>
+        <v>5.7954420000000004</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1572.860000</v>
+        <v>1572.86</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1042.960000</v>
+        <v>-1042.96</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>20874.740709</v>
+        <v>20874.740709000002</v>
       </c>
       <c r="CD7" s="1">
-        <v>5.798539</v>
+        <v>5.7985389999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1985.800000</v>
+        <v>1985.8</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1594.480000</v>
+        <v>-1594.48</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>20705.363878</v>
       </c>
       <c r="B8" s="1">
-        <v>5.751490</v>
+        <v>5.7514900000000004</v>
       </c>
       <c r="C8" s="1">
-        <v>899.124000</v>
+        <v>899.12400000000002</v>
       </c>
       <c r="D8" s="1">
-        <v>-194.603000</v>
+        <v>-194.60300000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>20715.695080</v>
+        <v>20715.695080000001</v>
       </c>
       <c r="G8" s="1">
-        <v>5.754360</v>
+        <v>5.7543600000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>915.690000</v>
+        <v>915.69</v>
       </c>
       <c r="I8" s="1">
-        <v>-165.380000</v>
+        <v>-165.38</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>20725.895770</v>
+        <v>20725.895769999999</v>
       </c>
       <c r="L8" s="1">
         <v>5.757193</v>
       </c>
       <c r="M8" s="1">
-        <v>937.982000</v>
+        <v>937.98199999999997</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.446000</v>
+        <v>-118.446</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>20736.672348</v>
       </c>
       <c r="Q8" s="1">
-        <v>5.760187</v>
+        <v>5.7601870000000002</v>
       </c>
       <c r="R8" s="1">
-        <v>944.333000</v>
+        <v>944.33299999999997</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.321000</v>
+        <v>-103.321</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>20747.209395</v>
+        <v>20747.209395000002</v>
       </c>
       <c r="V8" s="1">
-        <v>5.763114</v>
+        <v>5.7631139999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>950.762000</v>
+        <v>950.76199999999994</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.794000</v>
+        <v>-89.793999999999997</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>20757.358496</v>
+        <v>20757.358496000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>5.765933</v>
+        <v>5.7659330000000004</v>
       </c>
       <c r="AB8" s="1">
-        <v>958.072000</v>
+        <v>958.072</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.489400</v>
+        <v>-80.489400000000003</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>20767.891575</v>
+        <v>20767.891575000001</v>
       </c>
       <c r="AF8" s="1">
         <v>5.768859</v>
       </c>
       <c r="AG8" s="1">
-        <v>962.969000</v>
+        <v>962.96900000000005</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.298700</v>
+        <v>-80.298699999999997</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>20777.721781</v>
       </c>
       <c r="AK8" s="1">
-        <v>5.771589</v>
+        <v>5.7715889999999996</v>
       </c>
       <c r="AL8" s="1">
-        <v>970.987000</v>
+        <v>970.98699999999997</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.269400</v>
+        <v>-88.269400000000005</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>20788.818778</v>
+        <v>20788.818778000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>5.774672</v>
+        <v>5.7746719999999998</v>
       </c>
       <c r="AQ8" s="1">
-        <v>980.311000</v>
+        <v>980.31100000000004</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.433000</v>
+        <v>-103.43300000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>20799.458952</v>
+        <v>20799.458952000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>5.777627</v>
+        <v>5.7776269999999998</v>
       </c>
       <c r="AV8" s="1">
-        <v>991.850000</v>
+        <v>991.85</v>
       </c>
       <c r="AW8" s="1">
-        <v>-125.279000</v>
+        <v>-125.279</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>20810.236490</v>
+        <v>20810.236489999999</v>
       </c>
       <c r="AZ8" s="1">
         <v>5.780621</v>
       </c>
       <c r="BA8" s="1">
-        <v>1001.560000</v>
+        <v>1001.56</v>
       </c>
       <c r="BB8" s="1">
-        <v>-144.236000</v>
+        <v>-144.23599999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>20820.925772</v>
+        <v>20820.925771999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>5.783590</v>
+        <v>5.7835900000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1047.380000</v>
+        <v>1047.3800000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-229.907000</v>
+        <v>-229.90700000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>20831.968733</v>
+        <v>20831.968733000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>5.786658</v>
+        <v>5.7866580000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1127.660000</v>
+        <v>1127.6600000000001</v>
       </c>
       <c r="BL8" s="1">
-        <v>-367.263000</v>
+        <v>-367.26299999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>20842.817695</v>
+        <v>20842.817695000002</v>
       </c>
       <c r="BO8" s="1">
-        <v>5.789672</v>
+        <v>5.7896720000000004</v>
       </c>
       <c r="BP8" s="1">
-        <v>1260.300000</v>
+        <v>1260.3</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-579.453000</v>
+        <v>-579.45299999999997</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>20853.236690</v>
+        <v>20853.236690000002</v>
       </c>
       <c r="BT8" s="1">
-        <v>5.792566</v>
+        <v>5.7925659999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1409.460000</v>
+        <v>1409.46</v>
       </c>
       <c r="BV8" s="1">
-        <v>-806.068000</v>
+        <v>-806.06799999999998</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>20863.709188</v>
+        <v>20863.709188000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>5.795475</v>
+        <v>5.7954749999999997</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1572.780000</v>
+        <v>1572.78</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1042.940000</v>
+        <v>-1042.94</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>20875.271924</v>
+        <v>20875.271924000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>5.798687</v>
+        <v>5.7986870000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1986.460000</v>
+        <v>1986.46</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1596.410000</v>
+        <v>-1596.41</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>20705.785477</v>
+        <v>20705.785477000001</v>
       </c>
       <c r="B9" s="1">
-        <v>5.751607</v>
+        <v>5.7516069999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>899.133000</v>
+        <v>899.13300000000004</v>
       </c>
       <c r="D9" s="1">
-        <v>-194.792000</v>
+        <v>-194.792</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>20716.112680</v>
+        <v>20716.112679999998</v>
       </c>
       <c r="G9" s="1">
-        <v>5.754476</v>
+        <v>5.7544760000000004</v>
       </c>
       <c r="H9" s="1">
-        <v>915.605000</v>
+        <v>915.60500000000002</v>
       </c>
       <c r="I9" s="1">
-        <v>-165.279000</v>
+        <v>-165.279</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>20726.171577</v>
+        <v>20726.171577000001</v>
       </c>
       <c r="L9" s="1">
-        <v>5.757270</v>
+        <v>5.7572700000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>937.863000</v>
+        <v>937.86300000000006</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.640000</v>
+        <v>-118.64</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>20737.017563</v>
+        <v>20737.017563000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>5.760283</v>
+        <v>5.7602830000000003</v>
       </c>
       <c r="R9" s="1">
-        <v>944.382000</v>
+        <v>944.38199999999995</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.301000</v>
+        <v>-103.301</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>20747.555597</v>
+        <v>20747.555596999999</v>
       </c>
       <c r="V9" s="1">
-        <v>5.763210</v>
+        <v>5.7632099999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>950.813000</v>
+        <v>950.81299999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.764200</v>
+        <v>-89.764200000000002</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>20757.707680</v>
+        <v>20757.70768</v>
       </c>
       <c r="AA9" s="1">
-        <v>5.766030</v>
+        <v>5.7660299999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>957.992000</v>
+        <v>957.99199999999996</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.478400</v>
+        <v>-80.478399999999993</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>20768.236754</v>
+        <v>20768.236754000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>5.768955</v>
+        <v>5.7689550000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>963.083000</v>
+        <v>963.08299999999997</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.161700</v>
+        <v>-80.161699999999996</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>20778.418660</v>
+        <v>20778.418659999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>5.771783</v>
+        <v>5.7717830000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>970.994000</v>
+        <v>970.99400000000003</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.239100</v>
+        <v>-88.239099999999993</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>20789.176887</v>
+        <v>20789.176887000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>5.774771</v>
+        <v>5.7747710000000003</v>
       </c>
       <c r="AQ9" s="1">
-        <v>980.288000</v>
+        <v>980.28800000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.433000</v>
+        <v>-103.43300000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>20799.850793</v>
+        <v>20799.850793000001</v>
       </c>
       <c r="AU9" s="1">
         <v>5.777736</v>
       </c>
       <c r="AV9" s="1">
-        <v>991.831000</v>
+        <v>991.83100000000002</v>
       </c>
       <c r="AW9" s="1">
-        <v>-125.316000</v>
+        <v>-125.316</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>20810.614971</v>
+        <v>20810.614970999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>5.780726</v>
+        <v>5.7807259999999996</v>
       </c>
       <c r="BA9" s="1">
-        <v>1001.610000</v>
+        <v>1001.61</v>
       </c>
       <c r="BB9" s="1">
-        <v>-144.220000</v>
+        <v>-144.22</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>20821.532417</v>
+        <v>20821.532416999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>5.783759</v>
+        <v>5.7837589999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1047.390000</v>
+        <v>1047.3900000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-229.906000</v>
+        <v>-229.90600000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>20832.647725</v>
+        <v>20832.647724999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>5.786847</v>
+        <v>5.7868469999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1127.630000</v>
+        <v>1127.6300000000001</v>
       </c>
       <c r="BL9" s="1">
-        <v>-367.208000</v>
+        <v>-367.20800000000003</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>20842.927312</v>
       </c>
       <c r="BO9" s="1">
-        <v>5.789702</v>
+        <v>5.7897020000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1260.300000</v>
+        <v>1260.3</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-579.474000</v>
+        <v>-579.47400000000005</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>20853.347761</v>
+        <v>20853.347761000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>5.792597</v>
+        <v>5.7925969999999998</v>
       </c>
       <c r="BU9" s="1">
-        <v>1409.520000</v>
+        <v>1409.52</v>
       </c>
       <c r="BV9" s="1">
-        <v>-806.092000</v>
+        <v>-806.09199999999998</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>20864.155620</v>
+        <v>20864.155620000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>5.795599</v>
+        <v>5.7955990000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1572.760000</v>
+        <v>1572.76</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1042.910000</v>
+        <v>-1042.9100000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>20875.813592</v>
+        <v>20875.813591999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>5.798837</v>
+        <v>5.7988369999999998</v>
       </c>
       <c r="CE9" s="1">
-        <v>1987.130000</v>
+        <v>1987.13</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1594.690000</v>
+        <v>-1594.69</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>20706.065257</v>
+        <v>20706.065256999998</v>
       </c>
       <c r="B10" s="1">
-        <v>5.751685</v>
+        <v>5.7516850000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>899.176000</v>
+        <v>899.17600000000004</v>
       </c>
       <c r="D10" s="1">
-        <v>-194.637000</v>
+        <v>-194.637</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>20716.391462</v>
       </c>
       <c r="G10" s="1">
-        <v>5.754553</v>
+        <v>5.7545529999999996</v>
       </c>
       <c r="H10" s="1">
-        <v>916.282000</v>
+        <v>916.28200000000004</v>
       </c>
       <c r="I10" s="1">
-        <v>-165.238000</v>
+        <v>-165.238</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>20726.516788</v>
+        <v>20726.516788000001</v>
       </c>
       <c r="L10" s="1">
-        <v>5.757366</v>
+        <v>5.7573660000000002</v>
       </c>
       <c r="M10" s="1">
-        <v>938.027000</v>
+        <v>938.02700000000004</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.264000</v>
+        <v>-118.264</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>20737.367739</v>
+        <v>20737.367739000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>5.760380</v>
+        <v>5.7603799999999996</v>
       </c>
       <c r="R10" s="1">
-        <v>944.407000</v>
+        <v>944.40700000000004</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.323000</v>
+        <v>-103.32299999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>20747.898829</v>
+        <v>20747.898829000002</v>
       </c>
       <c r="V10" s="1">
-        <v>5.763305</v>
+        <v>5.7633049999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>950.780000</v>
+        <v>950.78</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.735800</v>
+        <v>-89.735799999999998</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>20758.405553</v>
+        <v>20758.405553000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>5.766224</v>
+        <v>5.7662240000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>958.046000</v>
+        <v>958.04600000000005</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.431100</v>
+        <v>-80.431100000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>20768.922226</v>
+        <v>20768.922225999999</v>
       </c>
       <c r="AF10" s="1">
         <v>5.769145</v>
       </c>
       <c r="AG10" s="1">
-        <v>962.996000</v>
+        <v>962.99599999999998</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.251800</v>
+        <v>-80.251800000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>20778.767348</v>
+        <v>20778.767348000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>5.771880</v>
+        <v>5.7718800000000003</v>
       </c>
       <c r="AL10" s="1">
-        <v>971.007000</v>
+        <v>971.00699999999995</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.225800</v>
+        <v>-88.225800000000007</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>20789.537941</v>
+        <v>20789.537940999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>5.774872</v>
+        <v>5.7748720000000002</v>
       </c>
       <c r="AQ10" s="1">
-        <v>980.291000</v>
+        <v>980.29100000000005</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.422000</v>
+        <v>-103.422</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>20800.213666</v>
       </c>
       <c r="AU10" s="1">
-        <v>5.777837</v>
+        <v>5.7778369999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>991.824000</v>
+        <v>991.82399999999996</v>
       </c>
       <c r="AW10" s="1">
-        <v>-125.294000</v>
+        <v>-125.294</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>20811.262713</v>
       </c>
       <c r="AZ10" s="1">
-        <v>5.780906</v>
+        <v>5.7809059999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1001.590000</v>
+        <v>1001.59</v>
       </c>
       <c r="BB10" s="1">
-        <v>-144.211000</v>
+        <v>-144.21100000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>20821.950045</v>
+        <v>20821.950045000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>5.783875</v>
+        <v>5.7838750000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1047.390000</v>
+        <v>1047.3900000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-229.885000</v>
+        <v>-229.88499999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>20833.095644</v>
+        <v>20833.095644000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>5.786971</v>
+        <v>5.7869710000000003</v>
       </c>
       <c r="BK10" s="1">
-        <v>1127.620000</v>
+        <v>1127.6199999999999</v>
       </c>
       <c r="BL10" s="1">
-        <v>-367.223000</v>
+        <v>-367.22300000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>20843.350431</v>
+        <v>20843.350430999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>5.789820</v>
+        <v>5.7898199999999997</v>
       </c>
       <c r="BP10" s="1">
-        <v>1260.250000</v>
+        <v>1260.25</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-579.468000</v>
+        <v>-579.46799999999996</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>20853.783777</v>
+        <v>20853.783777000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>5.792718</v>
+        <v>5.7927179999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>1409.530000</v>
+        <v>1409.53</v>
       </c>
       <c r="BV10" s="1">
-        <v>-806.358000</v>
+        <v>-806.35799999999995</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>20864.586610</v>
+        <v>20864.586609999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>5.795719</v>
+        <v>5.7957190000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1572.780000</v>
+        <v>1572.78</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1042.740000</v>
+        <v>-1042.74</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>20876.353203</v>
+        <v>20876.353202999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>5.798987</v>
+        <v>5.7989870000000003</v>
       </c>
       <c r="CE10" s="1">
-        <v>1985.520000</v>
+        <v>1985.52</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1595.200000</v>
+        <v>-1595.2</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>20706.407492</v>
+        <v>20706.407491999998</v>
       </c>
       <c r="B11" s="1">
-        <v>5.751780</v>
+        <v>5.7517800000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>899.123000</v>
+        <v>899.12300000000005</v>
       </c>
       <c r="D11" s="1">
-        <v>-194.802000</v>
+        <v>-194.80199999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>20716.737638</v>
+        <v>20716.737637999999</v>
       </c>
       <c r="G11" s="1">
-        <v>5.754649</v>
+        <v>5.7546489999999997</v>
       </c>
       <c r="H11" s="1">
-        <v>915.613000</v>
+        <v>915.61300000000006</v>
       </c>
       <c r="I11" s="1">
-        <v>-164.962000</v>
+        <v>-164.96199999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>20726.861976</v>
       </c>
       <c r="L11" s="1">
-        <v>5.757462</v>
+        <v>5.7574620000000003</v>
       </c>
       <c r="M11" s="1">
-        <v>937.715000</v>
+        <v>937.71500000000003</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.487000</v>
+        <v>-118.48699999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>20738.066603</v>
+        <v>20738.066602999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>5.760574</v>
+        <v>5.7605740000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>944.380000</v>
+        <v>944.38</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.370000</v>
+        <v>-103.37</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>20748.586748</v>
+        <v>20748.586748000002</v>
       </c>
       <c r="V11" s="1">
         <v>5.763496</v>
       </c>
       <c r="W11" s="1">
-        <v>950.781000</v>
+        <v>950.78099999999995</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.763500</v>
+        <v>-89.763499999999993</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>20758.753742</v>
+        <v>20758.753742000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>5.766320</v>
+        <v>5.7663200000000003</v>
       </c>
       <c r="AB11" s="1">
-        <v>958.029000</v>
+        <v>958.029</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.509900</v>
+        <v>-80.509900000000002</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>20769.266449</v>
+        <v>20769.266448999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>5.769241</v>
+        <v>5.7692410000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>962.993000</v>
+        <v>962.99300000000005</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.116300</v>
+        <v>-80.116299999999995</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>20779.116995</v>
       </c>
       <c r="AK11" s="1">
-        <v>5.771977</v>
+        <v>5.7719769999999997</v>
       </c>
       <c r="AL11" s="1">
-        <v>970.992000</v>
+        <v>970.99199999999996</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.247300</v>
+        <v>-88.247299999999996</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>20790.210517</v>
       </c>
       <c r="AP11" s="1">
-        <v>5.775058</v>
+        <v>5.7750579999999996</v>
       </c>
       <c r="AQ11" s="1">
-        <v>980.292000</v>
+        <v>980.29200000000003</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.429000</v>
+        <v>-103.429</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>20800.883926</v>
+        <v>20800.883925999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>5.778023</v>
+        <v>5.7780230000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>991.845000</v>
+        <v>991.84500000000003</v>
       </c>
       <c r="AW11" s="1">
-        <v>-125.299000</v>
+        <v>-125.29900000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>20811.696716</v>
+        <v>20811.696715999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>5.781027</v>
+        <v>5.7810269999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1001.620000</v>
+        <v>1001.62</v>
       </c>
       <c r="BB11" s="1">
-        <v>-144.199000</v>
+        <v>-144.19900000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>20822.311796</v>
+        <v>20822.311796000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>5.783975</v>
+        <v>5.7839749999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1047.370000</v>
+        <v>1047.3699999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-229.895000</v>
+        <v>-229.89500000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>20833.471581</v>
+        <v>20833.471581000002</v>
       </c>
       <c r="BJ11" s="1">
-        <v>5.787075</v>
+        <v>5.7870749999999997</v>
       </c>
       <c r="BK11" s="1">
-        <v>1127.610000</v>
+        <v>1127.6099999999999</v>
       </c>
       <c r="BL11" s="1">
-        <v>-367.240000</v>
+        <v>-367.24</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>20843.749182</v>
       </c>
       <c r="BO11" s="1">
-        <v>5.789930</v>
+        <v>5.78993</v>
       </c>
       <c r="BP11" s="1">
-        <v>1260.280000</v>
+        <v>1260.28</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-579.476000</v>
+        <v>-579.476</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>20854.209846</v>
+        <v>20854.209846000002</v>
       </c>
       <c r="BT11" s="1">
-        <v>5.792836</v>
+        <v>5.7928360000000003</v>
       </c>
       <c r="BU11" s="1">
-        <v>1409.480000</v>
+        <v>1409.48</v>
       </c>
       <c r="BV11" s="1">
-        <v>-806.365000</v>
+        <v>-806.36500000000001</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>20865.008725</v>
       </c>
       <c r="BY11" s="1">
-        <v>5.795836</v>
+        <v>5.7958360000000004</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1572.770000</v>
+        <v>1572.77</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1042.900000</v>
+        <v>-1042.9000000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>20876.891860</v>
+        <v>20876.89186</v>
       </c>
       <c r="CD11" s="1">
         <v>5.799137</v>
       </c>
       <c r="CE11" s="1">
-        <v>1987.330000</v>
+        <v>1987.33</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1596.130000</v>
+        <v>-1596.13</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>20706.747246</v>
+        <v>20706.747245999999</v>
       </c>
       <c r="B12" s="1">
-        <v>5.751874</v>
+        <v>5.7518739999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>899.115000</v>
+        <v>899.11500000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-194.711000</v>
+        <v>-194.71100000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>20717.078918</v>
+        <v>20717.078917999999</v>
       </c>
       <c r="G12" s="1">
-        <v>5.754744</v>
+        <v>5.7547439999999996</v>
       </c>
       <c r="H12" s="1">
-        <v>916.062000</v>
+        <v>916.06200000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-165.210000</v>
+        <v>-165.21</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>20727.555416</v>
+        <v>20727.555415999999</v>
       </c>
       <c r="L12" s="1">
-        <v>5.757654</v>
+        <v>5.7576539999999996</v>
       </c>
       <c r="M12" s="1">
-        <v>937.815000</v>
+        <v>937.81500000000005</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.570000</v>
+        <v>-118.57</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>20738.412810</v>
+        <v>20738.412810000002</v>
       </c>
       <c r="Q12" s="1">
-        <v>5.760670</v>
+        <v>5.7606700000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>944.361000</v>
+        <v>944.36099999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.343000</v>
+        <v>-103.343</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>20748.930971</v>
+        <v>20748.930971000002</v>
       </c>
       <c r="V12" s="1">
         <v>5.763592</v>
       </c>
       <c r="W12" s="1">
-        <v>950.766000</v>
+        <v>950.76599999999996</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.728400</v>
+        <v>-89.728399999999993</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>20759.099952</v>
       </c>
       <c r="AA12" s="1">
-        <v>5.766417</v>
+        <v>5.7664169999999997</v>
       </c>
       <c r="AB12" s="1">
-        <v>958.018000</v>
+        <v>958.01800000000003</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.468500</v>
+        <v>-80.468500000000006</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>20769.646384</v>
       </c>
       <c r="AF12" s="1">
-        <v>5.769346</v>
+        <v>5.7693459999999996</v>
       </c>
       <c r="AG12" s="1">
-        <v>962.994000</v>
+        <v>962.99400000000003</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.180900</v>
+        <v>-80.180899999999994</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>20779.765589</v>
+        <v>20779.765588999999</v>
       </c>
       <c r="AK12" s="1">
         <v>5.772157</v>
       </c>
       <c r="AL12" s="1">
-        <v>971.006000</v>
+        <v>971.00599999999997</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.220200</v>
+        <v>-88.220200000000006</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>20790.652452</v>
+        <v>20790.652451999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>5.775181</v>
+        <v>5.7751809999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>980.293000</v>
+        <v>980.29300000000001</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.429000</v>
+        <v>-103.429</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>20801.343754</v>
+        <v>20801.343754000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>5.778151</v>
+        <v>5.7781510000000003</v>
       </c>
       <c r="AV12" s="1">
-        <v>991.835000</v>
+        <v>991.83500000000004</v>
       </c>
       <c r="AW12" s="1">
-        <v>-125.296000</v>
+        <v>-125.29600000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>20812.073176</v>
+        <v>20812.073176000002</v>
       </c>
       <c r="AZ12" s="1">
-        <v>5.781131</v>
+        <v>5.7811310000000002</v>
       </c>
       <c r="BA12" s="1">
-        <v>1001.560000</v>
+        <v>1001.56</v>
       </c>
       <c r="BB12" s="1">
-        <v>-144.227000</v>
+        <v>-144.227</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>20822.674699</v>
+        <v>20822.674698999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>5.784076</v>
+        <v>5.7840759999999998</v>
       </c>
       <c r="BF12" s="1">
-        <v>1047.390000</v>
+        <v>1047.3900000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-229.898000</v>
+        <v>-229.898</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>20833.846588</v>
       </c>
       <c r="BJ12" s="1">
-        <v>5.787180</v>
+        <v>5.7871800000000002</v>
       </c>
       <c r="BK12" s="1">
-        <v>1127.650000</v>
+        <v>1127.6500000000001</v>
       </c>
       <c r="BL12" s="1">
-        <v>-367.245000</v>
+        <v>-367.245</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>20844.174750</v>
+        <v>20844.174749999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>5.790049</v>
+        <v>5.7900489999999998</v>
       </c>
       <c r="BP12" s="1">
-        <v>1260.310000</v>
+        <v>1260.31</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-579.509000</v>
+        <v>-579.50900000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>20854.628432</v>
+        <v>20854.628432000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>5.792952</v>
+        <v>5.7929519999999997</v>
       </c>
       <c r="BU12" s="1">
-        <v>1409.380000</v>
+        <v>1409.38</v>
       </c>
       <c r="BV12" s="1">
-        <v>-806.605000</v>
+        <v>-806.60500000000002</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>20865.433281</v>
+        <v>20865.433281000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>5.795954</v>
+        <v>5.7959540000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1572.800000</v>
+        <v>1572.8</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1042.760000</v>
+        <v>-1042.76</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>20877.429057</v>
+        <v>20877.429057000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>5.799286</v>
+        <v>5.7992860000000004</v>
       </c>
       <c r="CE12" s="1">
-        <v>1986.150000</v>
+        <v>1986.15</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1594.220000</v>
+        <v>-1594.22</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>20707.430210</v>
+        <v>20707.430209999999</v>
       </c>
       <c r="B13" s="1">
-        <v>5.752064</v>
+        <v>5.7520639999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>899.161000</v>
+        <v>899.16099999999994</v>
       </c>
       <c r="D13" s="1">
-        <v>-194.810000</v>
+        <v>-194.81</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>20717.772790</v>
+        <v>20717.772789999999</v>
       </c>
       <c r="G13" s="1">
         <v>5.754937</v>
       </c>
       <c r="H13" s="1">
-        <v>916.027000</v>
+        <v>916.02700000000004</v>
       </c>
       <c r="I13" s="1">
-        <v>-165.067000</v>
+        <v>-165.06700000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>20727.898615</v>
+        <v>20727.898614999998</v>
       </c>
       <c r="L13" s="1">
-        <v>5.757750</v>
+        <v>5.7577499999999997</v>
       </c>
       <c r="M13" s="1">
-        <v>937.820000</v>
+        <v>937.82</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.617000</v>
+        <v>-118.617</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>20738.764968</v>
+        <v>20738.764967999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>5.760768</v>
+        <v>5.7607679999999997</v>
       </c>
       <c r="R13" s="1">
-        <v>944.362000</v>
+        <v>944.36199999999997</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.304000</v>
+        <v>-103.304</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>20749.273242</v>
+        <v>20749.273241999999</v>
       </c>
       <c r="V13" s="1">
         <v>5.763687</v>
       </c>
       <c r="W13" s="1">
-        <v>950.771000</v>
+        <v>950.77099999999996</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.771000</v>
+        <v>-89.771000000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>20759.748221</v>
+        <v>20759.748221000002</v>
       </c>
       <c r="AA13" s="1">
         <v>5.766597</v>
       </c>
       <c r="AB13" s="1">
-        <v>957.992000</v>
+        <v>957.99199999999996</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.465500</v>
+        <v>-80.465500000000006</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>20770.073935</v>
       </c>
       <c r="AF13" s="1">
-        <v>5.769465</v>
+        <v>5.7694650000000003</v>
       </c>
       <c r="AG13" s="1">
-        <v>962.993000</v>
+        <v>962.99300000000005</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.154100</v>
+        <v>-80.1541</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>20780.163554</v>
+        <v>20780.163553999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>5.772268</v>
+        <v>5.7722680000000004</v>
       </c>
       <c r="AL13" s="1">
-        <v>971.001000</v>
+        <v>971.00099999999998</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.225000</v>
+        <v>-88.224999999999994</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>20791.009573</v>
+        <v>20791.009572999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>5.775280</v>
+        <v>5.7752800000000004</v>
       </c>
       <c r="AQ13" s="1">
-        <v>980.297000</v>
+        <v>980.29700000000003</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.424000</v>
+        <v>-103.42400000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>20801.707814</v>
+        <v>20801.707814000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>5.778252</v>
+        <v>5.7782520000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>991.850000</v>
+        <v>991.85</v>
       </c>
       <c r="AW13" s="1">
-        <v>-125.287000</v>
+        <v>-125.28700000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>20812.452119</v>
+        <v>20812.452119000001</v>
       </c>
       <c r="AZ13" s="1">
         <v>5.781237</v>
       </c>
       <c r="BA13" s="1">
-        <v>1001.590000</v>
+        <v>1001.59</v>
       </c>
       <c r="BB13" s="1">
-        <v>-144.214000</v>
+        <v>-144.214</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>20823.090313</v>
+        <v>20823.090313000001</v>
       </c>
       <c r="BE13" s="1">
         <v>5.784192</v>
       </c>
       <c r="BF13" s="1">
-        <v>1047.380000</v>
+        <v>1047.3800000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-229.897000</v>
+        <v>-229.89699999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>20834.265708</v>
+        <v>20834.265707999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>5.787296</v>
+        <v>5.7872960000000004</v>
       </c>
       <c r="BK13" s="1">
-        <v>1127.640000</v>
+        <v>1127.6400000000001</v>
       </c>
       <c r="BL13" s="1">
-        <v>-367.225000</v>
+        <v>-367.22500000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>20844.567118</v>
+        <v>20844.567117999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>5.790158</v>
+        <v>5.7901579999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1260.230000</v>
+        <v>1260.23</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-579.456000</v>
+        <v>-579.45600000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>20855.052016</v>
+        <v>20855.052016000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>5.793070</v>
+        <v>5.7930700000000002</v>
       </c>
       <c r="BU13" s="1">
-        <v>1409.280000</v>
+        <v>1409.28</v>
       </c>
       <c r="BV13" s="1">
-        <v>-806.616000</v>
+        <v>-806.61599999999999</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>20865.856900</v>
+        <v>20865.856899999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>5.796071</v>
+        <v>5.7960710000000004</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1572.780000</v>
+        <v>1572.78</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1042.860000</v>
+        <v>-1042.8599999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>20877.973641</v>
       </c>
       <c r="CD13" s="1">
-        <v>5.799437</v>
+        <v>5.7994370000000002</v>
       </c>
       <c r="CE13" s="1">
-        <v>1986.220000</v>
+        <v>1986.22</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1596.300000</v>
+        <v>-1596.3</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>20707.773441</v>
+        <v>20707.773441000001</v>
       </c>
       <c r="B14" s="1">
-        <v>5.752159</v>
+        <v>5.7521589999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>899.177000</v>
+        <v>899.17700000000002</v>
       </c>
       <c r="D14" s="1">
-        <v>-194.858000</v>
+        <v>-194.858</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>20718.113541</v>
+        <v>20718.113540999999</v>
       </c>
       <c r="G14" s="1">
-        <v>5.755032</v>
+        <v>5.7550319999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>915.639000</v>
+        <v>915.63900000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-164.750000</v>
+        <v>-164.75</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>20728.246311</v>
+        <v>20728.246310999999</v>
       </c>
       <c r="L14" s="1">
-        <v>5.757846</v>
+        <v>5.7578459999999998</v>
       </c>
       <c r="M14" s="1">
-        <v>937.866000</v>
+        <v>937.86599999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.408000</v>
+        <v>-118.408</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>20739.420680</v>
+        <v>20739.420679999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>5.760950</v>
+        <v>5.7609500000000002</v>
       </c>
       <c r="R14" s="1">
-        <v>944.381000</v>
+        <v>944.38099999999997</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.274000</v>
+        <v>-103.274</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>20749.924459</v>
+        <v>20749.924459000002</v>
       </c>
       <c r="V14" s="1">
-        <v>5.763868</v>
+        <v>5.7638680000000004</v>
       </c>
       <c r="W14" s="1">
-        <v>950.799000</v>
+        <v>950.79899999999998</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.808700</v>
+        <v>-89.808700000000002</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>20760.147501</v>
+        <v>20760.147500999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>5.766708</v>
+        <v>5.7667080000000004</v>
       </c>
       <c r="AB14" s="1">
-        <v>957.981000</v>
+        <v>957.98099999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.484100</v>
+        <v>-80.484099999999998</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>20770.328879</v>
+        <v>20770.328879000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>5.769536</v>
+        <v>5.7695360000000004</v>
       </c>
       <c r="AG14" s="1">
-        <v>962.964000</v>
+        <v>962.96400000000006</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.099200</v>
+        <v>-80.099199999999996</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>20780.498852</v>
+        <v>20780.498852000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>5.772361</v>
+        <v>5.7723610000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>970.994000</v>
+        <v>970.99400000000003</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.235400</v>
+        <v>-88.235399999999998</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>20791.372180</v>
+        <v>20791.372179999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>5.775381</v>
+        <v>5.7753810000000003</v>
       </c>
       <c r="AQ14" s="1">
-        <v>980.302000</v>
+        <v>980.30200000000002</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.402000</v>
+        <v>-103.402</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>20802.069894</v>
       </c>
       <c r="AU14" s="1">
-        <v>5.778353</v>
+        <v>5.7783530000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>991.833000</v>
+        <v>991.83299999999997</v>
       </c>
       <c r="AW14" s="1">
-        <v>-125.302000</v>
+        <v>-125.30200000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>20812.867768</v>
@@ -3715,497 +4131,497 @@
         <v>5.781352</v>
       </c>
       <c r="BA14" s="1">
-        <v>1001.580000</v>
+        <v>1001.58</v>
       </c>
       <c r="BB14" s="1">
-        <v>-144.224000</v>
+        <v>-144.22399999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>20823.396873</v>
+        <v>20823.396873000002</v>
       </c>
       <c r="BE14" s="1">
-        <v>5.784277</v>
+        <v>5.7842770000000003</v>
       </c>
       <c r="BF14" s="1">
-        <v>1047.390000</v>
+        <v>1047.3900000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-229.897000</v>
+        <v>-229.89699999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>20834.616347</v>
+        <v>20834.616346999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>5.787393</v>
+        <v>5.7873929999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1127.640000</v>
+        <v>1127.6400000000001</v>
       </c>
       <c r="BL14" s="1">
-        <v>-367.254000</v>
+        <v>-367.25400000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>20844.989182</v>
+        <v>20844.989182000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>5.790275</v>
+        <v>5.7902750000000003</v>
       </c>
       <c r="BP14" s="1">
-        <v>1260.270000</v>
+        <v>1260.27</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-579.467000</v>
+        <v>-579.46699999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>20855.482062</v>
+        <v>20855.482061999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>5.793189</v>
+        <v>5.7931889999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1409.150000</v>
+        <v>1409.15</v>
       </c>
       <c r="BV14" s="1">
-        <v>-806.701000</v>
+        <v>-806.70100000000002</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>20866.273537</v>
+        <v>20866.273537000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>5.796187</v>
+        <v>5.7961869999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1572.780000</v>
+        <v>1572.78</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1042.850000</v>
+        <v>-1042.8499999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>20878.510837</v>
+        <v>20878.510837000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>5.799586</v>
+        <v>5.7995859999999997</v>
       </c>
       <c r="CE14" s="1">
-        <v>1987.590000</v>
+        <v>1987.59</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1594.910000</v>
+        <v>-1594.91</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>20708.117170</v>
+        <v>20708.117170000001</v>
       </c>
       <c r="B15" s="1">
-        <v>5.752255</v>
+        <v>5.7522549999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>899.200000</v>
+        <v>899.2</v>
       </c>
       <c r="D15" s="1">
-        <v>-194.706000</v>
+        <v>-194.70599999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>20718.483556</v>
+        <v>20718.483555999999</v>
       </c>
       <c r="G15" s="1">
         <v>5.755134</v>
       </c>
       <c r="H15" s="1">
-        <v>916.044000</v>
+        <v>916.04399999999998</v>
       </c>
       <c r="I15" s="1">
-        <v>-164.811000</v>
+        <v>-164.81100000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>20728.896101</v>
+        <v>20728.896100999998</v>
       </c>
       <c r="L15" s="1">
-        <v>5.758027</v>
+        <v>5.7580270000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>937.946000</v>
+        <v>937.94600000000003</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.499000</v>
+        <v>-118.499</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>20739.809047</v>
+        <v>20739.809046999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>5.761058</v>
+        <v>5.7610580000000002</v>
       </c>
       <c r="R15" s="1">
-        <v>944.418000</v>
+        <v>944.41800000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.334000</v>
+        <v>-103.334</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>20750.301641</v>
+        <v>20750.301640999998</v>
       </c>
       <c r="V15" s="1">
         <v>5.763973</v>
       </c>
       <c r="W15" s="1">
-        <v>950.774000</v>
+        <v>950.774</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.796100</v>
+        <v>-89.796099999999996</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>20760.496684</v>
+        <v>20760.496684000002</v>
       </c>
       <c r="AA15" s="1">
-        <v>5.766805</v>
+        <v>5.7668049999999997</v>
       </c>
       <c r="AB15" s="1">
-        <v>957.970000</v>
+        <v>957.97</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.461500</v>
+        <v>-80.461500000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>20770.669136</v>
       </c>
       <c r="AF15" s="1">
-        <v>5.769630</v>
+        <v>5.7696300000000003</v>
       </c>
       <c r="AG15" s="1">
-        <v>962.979000</v>
+        <v>962.97900000000004</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.221900</v>
+        <v>-80.221900000000005</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>20780.860929</v>
+        <v>20780.860928999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>5.772461</v>
+        <v>5.7724609999999998</v>
       </c>
       <c r="AL15" s="1">
-        <v>971.006000</v>
+        <v>971.00599999999997</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.239400</v>
+        <v>-88.239400000000003</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>20791.781189</v>
+        <v>20791.781189000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>5.775495</v>
+        <v>5.7754950000000003</v>
       </c>
       <c r="AQ15" s="1">
-        <v>980.309000</v>
+        <v>980.30899999999997</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.445000</v>
+        <v>-103.44499999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>20802.517291</v>
       </c>
       <c r="AU15" s="1">
-        <v>5.778477</v>
+        <v>5.7784769999999996</v>
       </c>
       <c r="AV15" s="1">
-        <v>991.853000</v>
+        <v>991.85299999999995</v>
       </c>
       <c r="AW15" s="1">
-        <v>-125.305000</v>
+        <v>-125.30500000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>20813.170326</v>
+        <v>20813.170325999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>5.781436</v>
+        <v>5.7814360000000002</v>
       </c>
       <c r="BA15" s="1">
-        <v>1001.590000</v>
+        <v>1001.59</v>
       </c>
       <c r="BB15" s="1">
-        <v>-144.209000</v>
+        <v>-144.209</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>20823.756440</v>
+        <v>20823.756440000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>5.784377</v>
+        <v>5.7843770000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1047.380000</v>
+        <v>1047.3800000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-229.888000</v>
+        <v>-229.88800000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>20834.991354</v>
+        <v>20834.991354000002</v>
       </c>
       <c r="BJ15" s="1">
-        <v>5.787498</v>
+        <v>5.7874980000000003</v>
       </c>
       <c r="BK15" s="1">
-        <v>1127.660000</v>
+        <v>1127.6600000000001</v>
       </c>
       <c r="BL15" s="1">
-        <v>-367.220000</v>
+        <v>-367.22</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>20845.388956</v>
+        <v>20845.388955999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>5.790386</v>
+        <v>5.7903859999999998</v>
       </c>
       <c r="BP15" s="1">
-        <v>1260.320000</v>
+        <v>1260.32</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-579.481000</v>
+        <v>-579.48099999999999</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>20856.126383</v>
+        <v>20856.126382999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>5.793368</v>
+        <v>5.7933680000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1409.030000</v>
+        <v>1409.03</v>
       </c>
       <c r="BV15" s="1">
-        <v>-806.640000</v>
+        <v>-806.64</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>20866.722880</v>
+        <v>20866.722880000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>5.796312</v>
+        <v>5.7963120000000004</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1572.710000</v>
+        <v>1572.71</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1042.880000</v>
+        <v>-1042.8800000000001</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>20879.054415</v>
+        <v>20879.054414999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>5.799737</v>
+        <v>5.7997370000000004</v>
       </c>
       <c r="CE15" s="1">
-        <v>1985.380000</v>
+        <v>1985.38</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1594.660000</v>
+        <v>-1594.66</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>20708.764945</v>
+        <v>20708.764944999999</v>
       </c>
       <c r="B16" s="1">
-        <v>5.752435</v>
+        <v>5.7524350000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>899.319000</v>
+        <v>899.31899999999996</v>
       </c>
       <c r="D16" s="1">
-        <v>-194.637000</v>
+        <v>-194.637</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>20718.952275</v>
       </c>
       <c r="G16" s="1">
-        <v>5.755265</v>
+        <v>5.7552649999999996</v>
       </c>
       <c r="H16" s="1">
-        <v>916.052000</v>
+        <v>916.05200000000002</v>
       </c>
       <c r="I16" s="1">
-        <v>-164.898000</v>
+        <v>-164.898</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>20729.284438</v>
+        <v>20729.284437999999</v>
       </c>
       <c r="L16" s="1">
-        <v>5.758135</v>
+        <v>5.7581350000000002</v>
       </c>
       <c r="M16" s="1">
-        <v>937.780000</v>
+        <v>937.78</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.308000</v>
+        <v>-118.30800000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>20740.149800</v>
+        <v>20740.149799999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>5.761153</v>
+        <v>5.7611530000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>944.410000</v>
+        <v>944.41</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.353000</v>
+        <v>-103.35299999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>20750.645668</v>
+        <v>20750.645668000001</v>
       </c>
       <c r="V16" s="1">
         <v>5.764068</v>
       </c>
       <c r="W16" s="1">
-        <v>950.797000</v>
+        <v>950.79700000000003</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.756100</v>
+        <v>-89.756100000000004</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>20760.844875</v>
+        <v>20760.844874999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>5.766901</v>
+        <v>5.7669009999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>957.989000</v>
+        <v>957.98900000000003</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.469700</v>
+        <v>-80.469700000000003</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>20771.079822</v>
       </c>
       <c r="AF16" s="1">
-        <v>5.769744</v>
+        <v>5.7697440000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>963.113000</v>
+        <v>963.11300000000006</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.307200</v>
+        <v>-80.307199999999995</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>20781.270128</v>
       </c>
       <c r="AK16" s="1">
-        <v>5.772575</v>
+        <v>5.7725749999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>970.984000</v>
+        <v>970.98400000000004</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.250400</v>
+        <v>-88.250399999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>20792.090883</v>
+        <v>20792.090883000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>5.775581</v>
+        <v>5.7755809999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>980.295000</v>
+        <v>980.29499999999996</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.426000</v>
+        <v>-103.426</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>20802.801497</v>
@@ -4214,1086 +4630,1086 @@
         <v>5.778556</v>
       </c>
       <c r="AV16" s="1">
-        <v>991.860000</v>
+        <v>991.86</v>
       </c>
       <c r="AW16" s="1">
-        <v>-125.297000</v>
+        <v>-125.297</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>20813.529118</v>
+        <v>20813.529117999999</v>
       </c>
       <c r="AZ16" s="1">
         <v>5.781536</v>
       </c>
       <c r="BA16" s="1">
-        <v>1001.570000</v>
+        <v>1001.57</v>
       </c>
       <c r="BB16" s="1">
-        <v>-144.221000</v>
+        <v>-144.221</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>20824.116538</v>
+        <v>20824.116537999998</v>
       </c>
       <c r="BE16" s="1">
-        <v>5.784477</v>
+        <v>5.7844769999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1047.390000</v>
+        <v>1047.3900000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-229.890000</v>
+        <v>-229.89</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>20835.366826</v>
+        <v>20835.366826000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>5.787602</v>
+        <v>5.7876019999999997</v>
       </c>
       <c r="BK16" s="1">
-        <v>1127.660000</v>
+        <v>1127.6600000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-367.224000</v>
+        <v>-367.22399999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>20845.804140</v>
+        <v>20845.80414</v>
       </c>
       <c r="BO16" s="1">
-        <v>5.790501</v>
+        <v>5.7905009999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1260.290000</v>
+        <v>1260.29</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-579.497000</v>
+        <v>-579.49699999999996</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>20856.325468</v>
+        <v>20856.325467999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>5.793424</v>
+        <v>5.7934239999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1408.920000</v>
+        <v>1408.92</v>
       </c>
       <c r="BV16" s="1">
-        <v>-806.632000</v>
+        <v>-806.63199999999995</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>20867.143488</v>
+        <v>20867.143488000002</v>
       </c>
       <c r="BY16" s="1">
-        <v>5.796429</v>
+        <v>5.7964289999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1572.800000</v>
+        <v>1572.8</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1042.880000</v>
+        <v>-1042.8800000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>20879.593605</v>
+        <v>20879.593604999998</v>
       </c>
       <c r="CD16" s="1">
         <v>5.799887</v>
       </c>
       <c r="CE16" s="1">
-        <v>1987.160000</v>
+        <v>1987.16</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1596.080000</v>
+        <v>-1596.08</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>20709.139953</v>
+        <v>20709.139953000002</v>
       </c>
       <c r="B17" s="1">
-        <v>5.752539</v>
+        <v>5.7525389999999996</v>
       </c>
       <c r="C17" s="1">
-        <v>899.105000</v>
+        <v>899.10500000000002</v>
       </c>
       <c r="D17" s="1">
-        <v>-194.814000</v>
+        <v>-194.81399999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>20719.148196</v>
+        <v>20719.148195999998</v>
       </c>
       <c r="G17" s="1">
-        <v>5.755319</v>
+        <v>5.7553190000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>915.990000</v>
+        <v>915.99</v>
       </c>
       <c r="I17" s="1">
-        <v>-164.841000</v>
+        <v>-164.84100000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>20729.628165</v>
+        <v>20729.628164999998</v>
       </c>
       <c r="L17" s="1">
-        <v>5.758230</v>
+        <v>5.7582300000000002</v>
       </c>
       <c r="M17" s="1">
-        <v>937.885000</v>
+        <v>937.88499999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.396000</v>
+        <v>-118.396</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>20740.508406</v>
+        <v>20740.508406000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>5.761252</v>
+        <v>5.7612519999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>944.405000</v>
+        <v>944.40499999999997</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.330000</v>
+        <v>-103.33</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>20750.990361</v>
       </c>
       <c r="V17" s="1">
-        <v>5.764164</v>
+        <v>5.7641640000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>950.815000</v>
+        <v>950.81500000000005</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.757100</v>
+        <v>-89.757099999999994</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>20761.272459</v>
       </c>
       <c r="AA17" s="1">
-        <v>5.767020</v>
+        <v>5.7670199999999996</v>
       </c>
       <c r="AB17" s="1">
-        <v>957.935000</v>
+        <v>957.93499999999995</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.524300</v>
+        <v>-80.524299999999997</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>20771.367038</v>
       </c>
       <c r="AF17" s="1">
-        <v>5.769824</v>
+        <v>5.7698239999999998</v>
       </c>
       <c r="AG17" s="1">
-        <v>962.964000</v>
+        <v>962.96400000000006</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.179400</v>
+        <v>-80.179400000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>20781.566240</v>
+        <v>20781.56624</v>
       </c>
       <c r="AK17" s="1">
-        <v>5.772657</v>
+        <v>5.7726569999999997</v>
       </c>
       <c r="AL17" s="1">
-        <v>971.016000</v>
+        <v>971.01599999999996</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.240700</v>
+        <v>-88.240700000000004</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>20792.450481</v>
       </c>
       <c r="AP17" s="1">
-        <v>5.775681</v>
+        <v>5.7756809999999996</v>
       </c>
       <c r="AQ17" s="1">
-        <v>980.287000</v>
+        <v>980.28700000000003</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.418000</v>
+        <v>-103.41800000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>20803.164046</v>
+        <v>20803.164046000002</v>
       </c>
       <c r="AU17" s="1">
-        <v>5.778657</v>
+        <v>5.7786569999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>991.828000</v>
+        <v>991.82799999999997</v>
       </c>
       <c r="AW17" s="1">
-        <v>-125.282000</v>
+        <v>-125.282</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>20813.886090</v>
+        <v>20813.88609</v>
       </c>
       <c r="AZ17" s="1">
-        <v>5.781635</v>
+        <v>5.7816349999999996</v>
       </c>
       <c r="BA17" s="1">
-        <v>1001.560000</v>
+        <v>1001.56</v>
       </c>
       <c r="BB17" s="1">
-        <v>-144.221000</v>
+        <v>-144.221</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>20824.837224</v>
+        <v>20824.837223999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>5.784677</v>
+        <v>5.7846770000000003</v>
       </c>
       <c r="BF17" s="1">
-        <v>1047.390000</v>
+        <v>1047.3900000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-229.902000</v>
+        <v>-229.90199999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>20836.116776</v>
+        <v>20836.116775999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>5.787810</v>
+        <v>5.7878100000000003</v>
       </c>
       <c r="BK17" s="1">
-        <v>1127.650000</v>
+        <v>1127.6500000000001</v>
       </c>
       <c r="BL17" s="1">
-        <v>-367.216000</v>
+        <v>-367.21600000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>20846.203387</v>
+        <v>20846.203387000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>5.790612</v>
+        <v>5.7906120000000003</v>
       </c>
       <c r="BP17" s="1">
-        <v>1260.230000</v>
+        <v>1260.23</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-579.464000</v>
+        <v>-579.46400000000006</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>20856.751841</v>
+        <v>20856.751841000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>5.793542</v>
+        <v>5.7935420000000004</v>
       </c>
       <c r="BU17" s="1">
-        <v>1408.840000</v>
+        <v>1408.84</v>
       </c>
       <c r="BV17" s="1">
-        <v>-806.407000</v>
+        <v>-806.40700000000004</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>20867.566576</v>
+        <v>20867.566576000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>5.796546</v>
+        <v>5.7965460000000002</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1572.880000</v>
+        <v>1572.88</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1042.940000</v>
+        <v>-1042.94</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>20880.430846</v>
+        <v>20880.430845999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>5.800120</v>
+        <v>5.8001199999999997</v>
       </c>
       <c r="CE17" s="1">
-        <v>1985.310000</v>
+        <v>1985.31</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1595.440000</v>
+        <v>-1595.44</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>20709.483647</v>
+        <v>20709.483647000001</v>
       </c>
       <c r="B18" s="1">
-        <v>5.752634</v>
+        <v>5.7526339999999996</v>
       </c>
       <c r="C18" s="1">
-        <v>899.146000</v>
+        <v>899.14599999999996</v>
       </c>
       <c r="D18" s="1">
-        <v>-194.564000</v>
+        <v>-194.56399999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>20719.492455</v>
       </c>
       <c r="G18" s="1">
-        <v>5.755415</v>
+        <v>5.7554150000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>916.042000</v>
+        <v>916.04200000000003</v>
       </c>
       <c r="I18" s="1">
-        <v>-164.750000</v>
+        <v>-164.75</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>20729.974869</v>
+        <v>20729.974869000001</v>
       </c>
       <c r="L18" s="1">
-        <v>5.758326</v>
+        <v>5.7583260000000003</v>
       </c>
       <c r="M18" s="1">
-        <v>937.954000</v>
+        <v>937.95399999999995</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.527000</v>
+        <v>-118.527</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>20740.918936</v>
+        <v>20740.918935999998</v>
       </c>
       <c r="Q18" s="1">
-        <v>5.761366</v>
+        <v>5.7613659999999998</v>
       </c>
       <c r="R18" s="1">
-        <v>944.379000</v>
+        <v>944.37900000000002</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.314000</v>
+        <v>-103.31399999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>20751.408984</v>
+        <v>20751.408984000002</v>
       </c>
       <c r="V18" s="1">
-        <v>5.764280</v>
+        <v>5.7642800000000003</v>
       </c>
       <c r="W18" s="1">
-        <v>950.852000</v>
+        <v>950.85199999999998</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.813200</v>
+        <v>-89.813199999999995</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>20761.554155</v>
+        <v>20761.554155000002</v>
       </c>
       <c r="AA18" s="1">
-        <v>5.767098</v>
+        <v>5.7670979999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>957.948000</v>
+        <v>957.94799999999998</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.518400</v>
+        <v>-80.5184</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>20771.710733</v>
       </c>
       <c r="AF18" s="1">
-        <v>5.769920</v>
+        <v>5.7699199999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>963.072000</v>
+        <v>963.072</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.231700</v>
+        <v>-80.231700000000004</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>20781.915437</v>
       </c>
       <c r="AK18" s="1">
-        <v>5.772754</v>
+        <v>5.7727539999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>971.021000</v>
+        <v>971.02099999999996</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.224300</v>
+        <v>-88.224299999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>20792.814521</v>
       </c>
       <c r="AP18" s="1">
-        <v>5.775782</v>
+        <v>5.7757820000000004</v>
       </c>
       <c r="AQ18" s="1">
-        <v>980.315000</v>
+        <v>980.31500000000005</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.414000</v>
+        <v>-103.414</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>20803.527604</v>
+        <v>20803.527603999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>5.778758</v>
+        <v>5.7787579999999998</v>
       </c>
       <c r="AV18" s="1">
-        <v>991.864000</v>
+        <v>991.86400000000003</v>
       </c>
       <c r="AW18" s="1">
-        <v>-125.278000</v>
+        <v>-125.27800000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>20814.602277</v>
+        <v>20814.602277000002</v>
       </c>
       <c r="AZ18" s="1">
-        <v>5.781834</v>
+        <v>5.7818339999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1001.590000</v>
+        <v>1001.59</v>
       </c>
       <c r="BB18" s="1">
-        <v>-144.226000</v>
+        <v>-144.226</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>20825.201319</v>
       </c>
       <c r="BE18" s="1">
-        <v>5.784778</v>
+        <v>5.7847780000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1047.390000</v>
+        <v>1047.3900000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-229.893000</v>
+        <v>-229.893</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>20836.496679</v>
       </c>
       <c r="BJ18" s="1">
-        <v>5.787916</v>
+        <v>5.7879160000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1127.650000</v>
+        <v>1127.6500000000001</v>
       </c>
       <c r="BL18" s="1">
-        <v>-367.220000</v>
+        <v>-367.22</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>20846.624012</v>
       </c>
       <c r="BO18" s="1">
-        <v>5.790729</v>
+        <v>5.7907289999999998</v>
       </c>
       <c r="BP18" s="1">
-        <v>1260.240000</v>
+        <v>1260.24</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-579.430000</v>
+        <v>-579.42999999999995</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>20857.471004</v>
+        <v>20857.471003999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>5.793742</v>
+        <v>5.7937419999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1408.830000</v>
+        <v>1408.83</v>
       </c>
       <c r="BV18" s="1">
-        <v>-806.197000</v>
+        <v>-806.197</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>20868.319043</v>
       </c>
       <c r="BY18" s="1">
-        <v>5.796755</v>
+        <v>5.7967550000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1572.740000</v>
+        <v>1572.74</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1042.720000</v>
+        <v>-1042.72</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>20880.671373</v>
+        <v>20880.671373000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>5.800186</v>
+        <v>5.8001860000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1985.420000</v>
+        <v>1985.42</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1595.520000</v>
+        <v>-1595.52</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>20709.826916</v>
+        <v>20709.826916000002</v>
       </c>
       <c r="B19" s="1">
-        <v>5.752730</v>
+        <v>5.7527299999999997</v>
       </c>
       <c r="C19" s="1">
-        <v>898.999000</v>
+        <v>898.99900000000002</v>
       </c>
       <c r="D19" s="1">
-        <v>-194.907000</v>
+        <v>-194.90700000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>20719.913522</v>
+        <v>20719.913521999999</v>
       </c>
       <c r="G19" s="1">
-        <v>5.755532</v>
+        <v>5.7555319999999996</v>
       </c>
       <c r="H19" s="1">
-        <v>916.057000</v>
+        <v>916.05700000000002</v>
       </c>
       <c r="I19" s="1">
-        <v>-164.558000</v>
+        <v>-164.55799999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>20730.407876</v>
+        <v>20730.407876000001</v>
       </c>
       <c r="L19" s="1">
-        <v>5.758447</v>
+        <v>5.7584470000000003</v>
       </c>
       <c r="M19" s="1">
-        <v>937.830000</v>
+        <v>937.83</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.424000</v>
+        <v>-118.42400000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>20741.210742</v>
+        <v>20741.210741999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>5.761447</v>
+        <v>5.7614470000000004</v>
       </c>
       <c r="R19" s="1">
-        <v>944.376000</v>
+        <v>944.37599999999998</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.283000</v>
+        <v>-103.283</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>20751.692200</v>
+        <v>20751.692200000001</v>
       </c>
       <c r="V19" s="1">
-        <v>5.764359</v>
+        <v>5.7643589999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>950.736000</v>
+        <v>950.73599999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.717000</v>
+        <v>-89.716999999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>20761.902348</v>
       </c>
       <c r="AA19" s="1">
-        <v>5.767195</v>
+        <v>5.7671950000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>957.960000</v>
+        <v>957.96</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.461700</v>
+        <v>-80.461699999999993</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>20772.053505</v>
       </c>
       <c r="AF19" s="1">
-        <v>5.770015</v>
+        <v>5.7700149999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>962.947000</v>
+        <v>962.947</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.158200</v>
+        <v>-80.158199999999994</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>20782.266097</v>
       </c>
       <c r="AK19" s="1">
-        <v>5.772852</v>
+        <v>5.7728520000000003</v>
       </c>
       <c r="AL19" s="1">
-        <v>970.990000</v>
+        <v>970.99</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.253100</v>
+        <v>-88.253100000000003</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>20793.539168</v>
+        <v>20793.539167999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>5.775983</v>
+        <v>5.7759830000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>980.328000</v>
+        <v>980.32799999999997</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.439000</v>
+        <v>-103.43899999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>20804.273091</v>
+        <v>20804.273090999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>5.778965</v>
+        <v>5.7789650000000004</v>
       </c>
       <c r="AV19" s="1">
-        <v>991.849000</v>
+        <v>991.84900000000005</v>
       </c>
       <c r="AW19" s="1">
-        <v>-125.300000</v>
+        <v>-125.3</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>20814.962497</v>
       </c>
       <c r="AZ19" s="1">
-        <v>5.781934</v>
+        <v>5.7819339999999997</v>
       </c>
       <c r="BA19" s="1">
-        <v>1001.580000</v>
+        <v>1001.58</v>
       </c>
       <c r="BB19" s="1">
-        <v>-144.220000</v>
+        <v>-144.22</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>20825.562406</v>
+        <v>20825.562406000001</v>
       </c>
       <c r="BE19" s="1">
         <v>5.784878</v>
       </c>
       <c r="BF19" s="1">
-        <v>1047.390000</v>
+        <v>1047.3900000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-229.895000</v>
+        <v>-229.89500000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>20836.868183</v>
+        <v>20836.868182999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>5.788019</v>
+        <v>5.7880190000000002</v>
       </c>
       <c r="BK19" s="1">
-        <v>1127.630000</v>
+        <v>1127.6300000000001</v>
       </c>
       <c r="BL19" s="1">
-        <v>-367.239000</v>
+        <v>-367.23899999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>20847.336745</v>
+        <v>20847.336745000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>5.790927</v>
+        <v>5.7909269999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1260.260000</v>
+        <v>1260.26</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-579.497000</v>
+        <v>-579.49699999999996</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>20857.598012</v>
+        <v>20857.598011999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>5.793777</v>
+        <v>5.7937770000000004</v>
       </c>
       <c r="BU19" s="1">
-        <v>1408.930000</v>
+        <v>1408.93</v>
       </c>
       <c r="BV19" s="1">
-        <v>-806.128000</v>
+        <v>-806.12800000000004</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>20868.445487</v>
+        <v>20868.445487000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>5.796790</v>
+        <v>5.7967899999999997</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1572.730000</v>
+        <v>1572.73</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1042.840000</v>
+        <v>-1042.8399999999999</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>20881.190717</v>
+        <v>20881.190717000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>5.800331</v>
+        <v>5.8003309999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1986.600000</v>
+        <v>1986.6</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1596.760000</v>
+        <v>-1596.76</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>20710.243520</v>
+        <v>20710.24352</v>
       </c>
       <c r="B20" s="1">
-        <v>5.752845</v>
+        <v>5.7528449999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>899.035000</v>
+        <v>899.03499999999997</v>
       </c>
       <c r="D20" s="1">
-        <v>-194.694000</v>
+        <v>-194.69399999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>20720.209138</v>
+        <v>20720.209137999998</v>
       </c>
       <c r="G20" s="1">
-        <v>5.755614</v>
+        <v>5.7556139999999996</v>
       </c>
       <c r="H20" s="1">
-        <v>915.873000</v>
+        <v>915.87300000000005</v>
       </c>
       <c r="I20" s="1">
-        <v>-165.191000</v>
+        <v>-165.191</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>20730.686642</v>
+        <v>20730.686642000001</v>
       </c>
       <c r="L20" s="1">
-        <v>5.758524</v>
+        <v>5.7585240000000004</v>
       </c>
       <c r="M20" s="1">
-        <v>937.913000</v>
+        <v>937.91300000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.515000</v>
+        <v>-118.515</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>20741.558965</v>
       </c>
       <c r="Q20" s="1">
-        <v>5.761544</v>
+        <v>5.7615439999999998</v>
       </c>
       <c r="R20" s="1">
-        <v>944.373000</v>
+        <v>944.37300000000005</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.283000</v>
+        <v>-103.283</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>20752.044893</v>
+        <v>20752.044892999998</v>
       </c>
       <c r="V20" s="1">
-        <v>5.764457</v>
+        <v>5.7644570000000002</v>
       </c>
       <c r="W20" s="1">
-        <v>950.837000</v>
+        <v>950.83699999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.658100</v>
+        <v>-89.658100000000005</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>20762.252522</v>
+        <v>20762.252521999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>5.767292</v>
+        <v>5.7672920000000003</v>
       </c>
       <c r="AB20" s="1">
-        <v>958.020000</v>
+        <v>958.02</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.466500</v>
+        <v>-80.466499999999996</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>20772.741420</v>
+        <v>20772.741419999998</v>
       </c>
       <c r="AF20" s="1">
-        <v>5.770206</v>
+        <v>5.7702059999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>963.009000</v>
+        <v>963.00900000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.234000</v>
+        <v>-80.233999999999995</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>20782.961983</v>
+        <v>20782.961983000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>5.773045</v>
+        <v>5.7730449999999998</v>
       </c>
       <c r="AL20" s="1">
-        <v>970.993000</v>
+        <v>970.99300000000005</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.260700</v>
+        <v>-88.2607</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>20793.914181</v>
       </c>
       <c r="AP20" s="1">
-        <v>5.776087</v>
+        <v>5.7760870000000004</v>
       </c>
       <c r="AQ20" s="1">
-        <v>980.303000</v>
+        <v>980.303</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.433000</v>
+        <v>-103.43300000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>20804.649587</v>
       </c>
       <c r="AU20" s="1">
-        <v>5.779069</v>
+        <v>5.7790689999999998</v>
       </c>
       <c r="AV20" s="1">
-        <v>991.862000</v>
+        <v>991.86199999999997</v>
       </c>
       <c r="AW20" s="1">
-        <v>-125.287000</v>
+        <v>-125.28700000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>20815.319492</v>
+        <v>20815.319491999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>5.782033</v>
+        <v>5.7820330000000002</v>
       </c>
       <c r="BA20" s="1">
-        <v>1001.590000</v>
+        <v>1001.59</v>
       </c>
       <c r="BB20" s="1">
-        <v>-144.228000</v>
+        <v>-144.22800000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>20826.227013</v>
       </c>
       <c r="BE20" s="1">
-        <v>5.785063</v>
+        <v>5.7850630000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1047.390000</v>
+        <v>1047.3900000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-229.900000</v>
+        <v>-229.9</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>20837.546748</v>
+        <v>20837.546748000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>5.788207</v>
+        <v>5.7882069999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1127.670000</v>
+        <v>1127.67</v>
       </c>
       <c r="BL20" s="1">
-        <v>-367.235000</v>
+        <v>-367.23500000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>20847.450825</v>
@@ -5302,452 +5718,452 @@
         <v>5.790959</v>
       </c>
       <c r="BP20" s="1">
-        <v>1260.280000</v>
+        <v>1260.28</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-579.482000</v>
+        <v>-579.48199999999997</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>20858.035947</v>
       </c>
       <c r="BT20" s="1">
-        <v>5.793899</v>
+        <v>5.7938989999999997</v>
       </c>
       <c r="BU20" s="1">
-        <v>1408.950000</v>
+        <v>1408.95</v>
       </c>
       <c r="BV20" s="1">
-        <v>-805.973000</v>
+        <v>-805.97299999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>20868.886925</v>
+        <v>20868.886924999999</v>
       </c>
       <c r="BY20" s="1">
         <v>5.796913</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1572.610000</v>
+        <v>1572.61</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1042.870000</v>
+        <v>-1042.8699999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>20881.708508</v>
       </c>
       <c r="CD20" s="1">
-        <v>5.800475</v>
+        <v>5.8004749999999996</v>
       </c>
       <c r="CE20" s="1">
-        <v>1987.750000</v>
+        <v>1987.75</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1595.210000</v>
+        <v>-1595.21</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>20710.524750</v>
+        <v>20710.52475</v>
       </c>
       <c r="B21" s="1">
-        <v>5.752924</v>
+        <v>5.7529240000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>898.839000</v>
+        <v>898.83900000000006</v>
       </c>
       <c r="D21" s="1">
-        <v>-194.680000</v>
+        <v>-194.68</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>20720.554104</v>
+        <v>20720.554103999999</v>
       </c>
       <c r="G21" s="1">
-        <v>5.755709</v>
+        <v>5.7557090000000004</v>
       </c>
       <c r="H21" s="1">
-        <v>915.947000</v>
+        <v>915.947</v>
       </c>
       <c r="I21" s="1">
-        <v>-165.180000</v>
+        <v>-165.18</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>20731.030851</v>
       </c>
       <c r="L21" s="1">
-        <v>5.758620</v>
+        <v>5.7586199999999996</v>
       </c>
       <c r="M21" s="1">
-        <v>937.920000</v>
+        <v>937.92</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.417000</v>
+        <v>-118.417</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>20741.910133</v>
+        <v>20741.910133000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>5.761642</v>
+        <v>5.7616420000000002</v>
       </c>
       <c r="R21" s="1">
-        <v>944.405000</v>
+        <v>944.40499999999997</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.303000</v>
+        <v>-103.303</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>20752.389612</v>
+        <v>20752.389611999999</v>
       </c>
       <c r="V21" s="1">
-        <v>5.764553</v>
+        <v>5.7645530000000003</v>
       </c>
       <c r="W21" s="1">
-        <v>950.781000</v>
+        <v>950.78099999999995</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.715600</v>
+        <v>-89.715599999999995</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>20762.945929</v>
+        <v>20762.945929000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>5.767485</v>
+        <v>5.7674849999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>957.926000</v>
+        <v>957.92600000000004</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.560200</v>
+        <v>-80.560199999999995</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>20773.084683</v>
+        <v>20773.084683000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>5.770301</v>
+        <v>5.7703009999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>962.931000</v>
+        <v>962.93100000000004</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.196800</v>
+        <v>-80.196799999999996</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>20783.311198</v>
+        <v>20783.311197999999</v>
       </c>
       <c r="AK21" s="1">
         <v>5.773142</v>
       </c>
       <c r="AL21" s="1">
-        <v>971.001000</v>
+        <v>971.00099999999998</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.247500</v>
+        <v>-88.247500000000002</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>20794.274735</v>
+        <v>20794.274734999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>5.776187</v>
+        <v>5.7761870000000002</v>
       </c>
       <c r="AQ21" s="1">
-        <v>980.307000</v>
+        <v>980.30700000000002</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.399000</v>
+        <v>-103.399</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>20805.315681</v>
       </c>
       <c r="AU21" s="1">
-        <v>5.779254</v>
+        <v>5.7792539999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>991.860000</v>
+        <v>991.86</v>
       </c>
       <c r="AW21" s="1">
-        <v>-125.296000</v>
+        <v>-125.29600000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>20815.993059</v>
       </c>
       <c r="AZ21" s="1">
-        <v>5.782220</v>
+        <v>5.7822199999999997</v>
       </c>
       <c r="BA21" s="1">
-        <v>1001.600000</v>
+        <v>1001.6</v>
       </c>
       <c r="BB21" s="1">
-        <v>-144.222000</v>
+        <v>-144.22200000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>20826.676885</v>
+        <v>20826.676885000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>5.785188</v>
+        <v>5.7851879999999998</v>
       </c>
       <c r="BF21" s="1">
-        <v>1047.380000</v>
+        <v>1047.3800000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-229.888000</v>
+        <v>-229.88800000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>20837.780353</v>
+        <v>20837.780352999998</v>
       </c>
       <c r="BJ21" s="1">
-        <v>5.788272</v>
+        <v>5.7882720000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1127.650000</v>
+        <v>1127.6500000000001</v>
       </c>
       <c r="BL21" s="1">
-        <v>-367.253000</v>
+        <v>-367.25299999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>20847.865480</v>
+        <v>20847.86548</v>
       </c>
       <c r="BO21" s="1">
-        <v>5.791074</v>
+        <v>5.7910740000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1260.270000</v>
+        <v>1260.27</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-579.463000</v>
+        <v>-579.46299999999997</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>20858.461514</v>
+        <v>20858.461513999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>5.794017</v>
+        <v>5.7940170000000002</v>
       </c>
       <c r="BU21" s="1">
-        <v>1409.070000</v>
+        <v>1409.07</v>
       </c>
       <c r="BV21" s="1">
-        <v>-805.979000</v>
+        <v>-805.97900000000004</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>20869.342748</v>
+        <v>20869.342747999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>5.797040</v>
+        <v>5.79704</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1572.630000</v>
+        <v>1572.63</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1042.900000</v>
+        <v>-1042.9000000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>20882.226828</v>
+        <v>20882.226827999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>5.800619</v>
+        <v>5.8006190000000002</v>
       </c>
       <c r="CE21" s="1">
-        <v>1986.380000</v>
+        <v>1986.38</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1594.290000</v>
+        <v>-1594.29</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>20710.866495</v>
+        <v>20710.866494999998</v>
       </c>
       <c r="B22" s="1">
         <v>5.753018</v>
       </c>
       <c r="C22" s="1">
-        <v>899.152000</v>
+        <v>899.15200000000004</v>
       </c>
       <c r="D22" s="1">
-        <v>-194.724000</v>
+        <v>-194.72399999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>20720.899568</v>
+        <v>20720.899568000001</v>
       </c>
       <c r="G22" s="1">
-        <v>5.755805</v>
+        <v>5.7558049999999996</v>
       </c>
       <c r="H22" s="1">
-        <v>915.896000</v>
+        <v>915.89599999999996</v>
       </c>
       <c r="I22" s="1">
-        <v>-165.155000</v>
+        <v>-165.155</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>20731.377060</v>
+        <v>20731.377059999999</v>
       </c>
       <c r="L22" s="1">
-        <v>5.758716</v>
+        <v>5.7587159999999997</v>
       </c>
       <c r="M22" s="1">
-        <v>937.906000</v>
+        <v>937.90599999999995</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.463000</v>
+        <v>-118.46299999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>20742.607973</v>
+        <v>20742.607972999998</v>
       </c>
       <c r="Q22" s="1">
-        <v>5.761836</v>
+        <v>5.7618359999999997</v>
       </c>
       <c r="R22" s="1">
-        <v>944.388000</v>
+        <v>944.38800000000003</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.347000</v>
+        <v>-103.34699999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>20753.074550</v>
+        <v>20753.074550000001</v>
       </c>
       <c r="V22" s="1">
-        <v>5.764743</v>
+        <v>5.7647430000000002</v>
       </c>
       <c r="W22" s="1">
-        <v>950.788000</v>
+        <v>950.78800000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.798100</v>
+        <v>-89.798100000000005</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>20763.296136</v>
+        <v>20763.296136000001</v>
       </c>
       <c r="AA22" s="1">
         <v>5.767582</v>
       </c>
       <c r="AB22" s="1">
-        <v>958.066000</v>
+        <v>958.06600000000003</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.460300</v>
+        <v>-80.460300000000004</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>20773.428906</v>
+        <v>20773.428906000001</v>
       </c>
       <c r="AF22" s="1">
         <v>5.770397</v>
       </c>
       <c r="AG22" s="1">
-        <v>963.005000</v>
+        <v>963.005</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.227500</v>
+        <v>-80.227500000000006</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>20783.657870</v>
+        <v>20783.657869999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>5.773238</v>
+        <v>5.7732380000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>971.002000</v>
+        <v>971.00199999999995</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.217700</v>
+        <v>-88.217699999999994</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>20794.944830</v>
+        <v>20794.94483</v>
       </c>
       <c r="AP22" s="1">
-        <v>5.776374</v>
+        <v>5.7763739999999997</v>
       </c>
       <c r="AQ22" s="1">
-        <v>980.306000</v>
+        <v>980.30600000000004</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.415000</v>
+        <v>-103.41500000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>20805.774513</v>
@@ -5756,467 +6172,467 @@
         <v>5.779382</v>
       </c>
       <c r="AV22" s="1">
-        <v>991.862000</v>
+        <v>991.86199999999997</v>
       </c>
       <c r="AW22" s="1">
-        <v>-125.315000</v>
+        <v>-125.315</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>20816.397831</v>
+        <v>20816.397830999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>5.782333</v>
+        <v>5.7823330000000004</v>
       </c>
       <c r="BA22" s="1">
-        <v>1001.580000</v>
+        <v>1001.58</v>
       </c>
       <c r="BB22" s="1">
-        <v>-144.218000</v>
+        <v>-144.21799999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>20827.038003</v>
+        <v>20827.038003000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>5.785288</v>
+        <v>5.7852880000000004</v>
       </c>
       <c r="BF22" s="1">
-        <v>1047.380000</v>
+        <v>1047.3800000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-229.894000</v>
+        <v>-229.89400000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>20838.034811</v>
+        <v>20838.034811000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>5.788343</v>
+        <v>5.7883430000000002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1127.640000</v>
+        <v>1127.6400000000001</v>
       </c>
       <c r="BL22" s="1">
-        <v>-367.195000</v>
+        <v>-367.19499999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>20848.262281</v>
+        <v>20848.262280999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>5.791184</v>
+        <v>5.7911840000000003</v>
       </c>
       <c r="BP22" s="1">
-        <v>1260.270000</v>
+        <v>1260.27</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-579.472000</v>
+        <v>-579.47199999999998</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>20858.874682</v>
+        <v>20858.874682000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>5.794132</v>
+        <v>5.7941320000000003</v>
       </c>
       <c r="BU22" s="1">
-        <v>1409.240000</v>
+        <v>1409.24</v>
       </c>
       <c r="BV22" s="1">
-        <v>-805.884000</v>
+        <v>-805.88400000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>20869.788188</v>
+        <v>20869.788187999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>5.797163</v>
+        <v>5.7971630000000003</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1572.800000</v>
+        <v>1572.8</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1042.770000</v>
+        <v>-1042.77</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>20882.745674</v>
+        <v>20882.745674000002</v>
       </c>
       <c r="CD22" s="1">
-        <v>5.800763</v>
+        <v>5.8007629999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1985.410000</v>
+        <v>1985.41</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1595.440000</v>
+        <v>-1595.44</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>20711.209260</v>
+        <v>20711.20926</v>
       </c>
       <c r="B23" s="1">
-        <v>5.753114</v>
+        <v>5.7531140000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>899.084000</v>
+        <v>899.08399999999995</v>
       </c>
       <c r="D23" s="1">
-        <v>-194.854000</v>
+        <v>-194.85400000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>20721.586064</v>
+        <v>20721.586063999999</v>
       </c>
       <c r="G23" s="1">
-        <v>5.755996</v>
+        <v>5.7559959999999997</v>
       </c>
       <c r="H23" s="1">
-        <v>915.419000</v>
+        <v>915.41899999999998</v>
       </c>
       <c r="I23" s="1">
-        <v>-165.263000</v>
+        <v>-165.26300000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>20732.069970</v>
+        <v>20732.06997</v>
       </c>
       <c r="L23" s="1">
-        <v>5.758908</v>
+        <v>5.7589079999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>937.807000</v>
+        <v>937.80700000000002</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.496000</v>
+        <v>-118.496</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>20742.954179</v>
       </c>
       <c r="Q23" s="1">
-        <v>5.761932</v>
+        <v>5.7619319999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>944.354000</v>
+        <v>944.35400000000004</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.336000</v>
+        <v>-103.336</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>20753.419765</v>
+        <v>20753.419764999999</v>
       </c>
       <c r="V23" s="1">
-        <v>5.764839</v>
+        <v>5.7648390000000003</v>
       </c>
       <c r="W23" s="1">
-        <v>950.766000</v>
+        <v>950.76599999999996</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.732700</v>
+        <v>-89.732699999999994</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>20763.644296</v>
+        <v>20763.644295999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>5.767679</v>
+        <v>5.7676790000000002</v>
       </c>
       <c r="AB23" s="1">
-        <v>958.114000</v>
+        <v>958.11400000000003</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.450200</v>
+        <v>-80.450199999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>20774.089581</v>
       </c>
       <c r="AF23" s="1">
-        <v>5.770580</v>
+        <v>5.7705799999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>963.033000</v>
+        <v>963.03300000000002</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.169200</v>
+        <v>-80.169200000000004</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>20784.309116</v>
       </c>
       <c r="AK23" s="1">
-        <v>5.773419</v>
+        <v>5.7734189999999996</v>
       </c>
       <c r="AL23" s="1">
-        <v>970.981000</v>
+        <v>970.98099999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.241500</v>
+        <v>-88.241500000000002</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>20795.358494</v>
       </c>
       <c r="AP23" s="1">
-        <v>5.776488</v>
+        <v>5.7764879999999996</v>
       </c>
       <c r="AQ23" s="1">
-        <v>980.302000</v>
+        <v>980.30200000000002</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.438000</v>
+        <v>-103.438</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>20806.140559</v>
+        <v>20806.140558999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>5.779483</v>
+        <v>5.7794829999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>991.863000</v>
+        <v>991.86300000000006</v>
       </c>
       <c r="AW23" s="1">
-        <v>-125.297000</v>
+        <v>-125.297</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>20816.784675</v>
+        <v>20816.784674999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>5.782440</v>
+        <v>5.7824400000000002</v>
       </c>
       <c r="BA23" s="1">
-        <v>1001.590000</v>
+        <v>1001.59</v>
       </c>
       <c r="BB23" s="1">
-        <v>-144.224000</v>
+        <v>-144.22399999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>20827.399556</v>
       </c>
       <c r="BE23" s="1">
-        <v>5.785389</v>
+        <v>5.7853890000000003</v>
       </c>
       <c r="BF23" s="1">
-        <v>1047.400000</v>
+        <v>1047.4000000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-229.885000</v>
+        <v>-229.88499999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>20838.640421</v>
       </c>
       <c r="BJ23" s="1">
-        <v>5.788511</v>
+        <v>5.7885109999999997</v>
       </c>
       <c r="BK23" s="1">
-        <v>1127.630000</v>
+        <v>1127.6300000000001</v>
       </c>
       <c r="BL23" s="1">
-        <v>-367.233000</v>
+        <v>-367.233</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>20848.684376</v>
+        <v>20848.684376000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>5.791301</v>
+        <v>5.7913009999999998</v>
       </c>
       <c r="BP23" s="1">
-        <v>1260.280000</v>
+        <v>1260.28</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-579.490000</v>
+        <v>-579.49</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>20859.305705</v>
+        <v>20859.305704999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>5.794252</v>
+        <v>5.7942520000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>1409.400000</v>
+        <v>1409.4</v>
       </c>
       <c r="BV23" s="1">
-        <v>-805.981000</v>
+        <v>-805.98099999999999</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>20870.245997</v>
+        <v>20870.245997000002</v>
       </c>
       <c r="BY23" s="1">
-        <v>5.797291</v>
+        <v>5.7972910000000004</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1572.820000</v>
+        <v>1572.82</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1042.940000</v>
+        <v>-1042.94</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>20883.264458</v>
+        <v>20883.264458000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>5.800907</v>
+        <v>5.8009069999999996</v>
       </c>
       <c r="CE23" s="1">
-        <v>1986.700000</v>
+        <v>1986.7</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1596.270000</v>
+        <v>-1596.27</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>20711.890237</v>
       </c>
       <c r="B24" s="1">
-        <v>5.753303</v>
+        <v>5.7533029999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>899.058000</v>
+        <v>899.05799999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-194.665000</v>
+        <v>-194.66499999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>20721.930256</v>
       </c>
       <c r="G24" s="1">
-        <v>5.756092</v>
+        <v>5.7560919999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>916.286000</v>
+        <v>916.28599999999994</v>
       </c>
       <c r="I24" s="1">
-        <v>-165.268000</v>
+        <v>-165.268</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>20732.419163</v>
+        <v>20732.419162999999</v>
       </c>
       <c r="L24" s="1">
-        <v>5.759005</v>
+        <v>5.7590050000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>938.130000</v>
+        <v>938.13</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.550000</v>
+        <v>-118.55</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>20743.303859</v>
       </c>
       <c r="Q24" s="1">
-        <v>5.762029</v>
+        <v>5.7620290000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>944.340000</v>
+        <v>944.34</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.299000</v>
+        <v>-103.29900000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>20754.071536</v>
+        <v>20754.071535999999</v>
       </c>
       <c r="V24" s="1">
-        <v>5.765020</v>
+        <v>5.7650199999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>950.809000</v>
+        <v>950.80899999999997</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.764800</v>
+        <v>-89.764799999999994</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>20764.310920</v>
+        <v>20764.31092</v>
       </c>
       <c r="AA24" s="1">
-        <v>5.767864</v>
+        <v>5.7678640000000003</v>
       </c>
       <c r="AB24" s="1">
-        <v>958.071000</v>
+        <v>958.07100000000003</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.445900</v>
+        <v>-80.445899999999995</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>20774.459067</v>
@@ -6225,43 +6641,43 @@
         <v>5.770683</v>
       </c>
       <c r="AG24" s="1">
-        <v>962.934000</v>
+        <v>962.93399999999997</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.131500</v>
+        <v>-80.131500000000003</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>20784.704924</v>
+        <v>20784.704924000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>5.773529</v>
+        <v>5.7735289999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>970.997000</v>
+        <v>970.99699999999996</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.237500</v>
+        <v>-88.237499999999997</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>20795.741405</v>
+        <v>20795.741405000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>5.776595</v>
+        <v>5.7765950000000004</v>
       </c>
       <c r="AQ24" s="1">
-        <v>980.295000</v>
+        <v>980.29499999999996</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.435000</v>
+        <v>-103.435</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>20806.507071</v>
@@ -6270,634 +6686,635 @@
         <v>5.779585</v>
       </c>
       <c r="AV24" s="1">
-        <v>991.857000</v>
+        <v>991.85699999999997</v>
       </c>
       <c r="AW24" s="1">
-        <v>-125.313000</v>
+        <v>-125.313</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>20817.143282</v>
+        <v>20817.143282000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>5.782540</v>
+        <v>5.78254</v>
       </c>
       <c r="BA24" s="1">
-        <v>1001.560000</v>
+        <v>1001.56</v>
       </c>
       <c r="BB24" s="1">
-        <v>-144.226000</v>
+        <v>-144.226</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>20827.831107</v>
+        <v>20827.831107000002</v>
       </c>
       <c r="BE24" s="1">
-        <v>5.785509</v>
+        <v>5.7855090000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1047.410000</v>
+        <v>1047.4100000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-229.894000</v>
+        <v>-229.89400000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>20838.815972</v>
       </c>
       <c r="BJ24" s="1">
-        <v>5.788560</v>
+        <v>5.7885600000000004</v>
       </c>
       <c r="BK24" s="1">
-        <v>1127.660000</v>
+        <v>1127.6600000000001</v>
       </c>
       <c r="BL24" s="1">
-        <v>-367.247000</v>
+        <v>-367.24700000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>20849.082663</v>
+        <v>20849.082663000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>5.791412</v>
+        <v>5.7914120000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1260.300000</v>
+        <v>1260.3</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-579.457000</v>
+        <v>-579.45699999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>20859.733257</v>
       </c>
       <c r="BT24" s="1">
-        <v>5.794370</v>
+        <v>5.7943699999999998</v>
       </c>
       <c r="BU24" s="1">
-        <v>1409.520000</v>
+        <v>1409.52</v>
       </c>
       <c r="BV24" s="1">
-        <v>-806.018000</v>
+        <v>-806.01800000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>20870.695340</v>
+        <v>20870.695339999998</v>
       </c>
       <c r="BY24" s="1">
         <v>5.797415</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1572.810000</v>
+        <v>1572.81</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1042.840000</v>
+        <v>-1042.8399999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>20883.778345</v>
+        <v>20883.778344999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>5.801050</v>
+        <v>5.80105</v>
       </c>
       <c r="CE24" s="1">
-        <v>1986.180000</v>
+        <v>1986.18</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1596.240000</v>
+        <v>-1596.24</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>20712.234956</v>
       </c>
       <c r="B25" s="1">
-        <v>5.753399</v>
+        <v>5.7533989999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>898.925000</v>
+        <v>898.92499999999995</v>
       </c>
       <c r="D25" s="1">
-        <v>-194.692000</v>
+        <v>-194.69200000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>20722.278943</v>
+        <v>20722.278943000001</v>
       </c>
       <c r="G25" s="1">
         <v>5.756189</v>
       </c>
       <c r="H25" s="1">
-        <v>915.767000</v>
+        <v>915.76700000000005</v>
       </c>
       <c r="I25" s="1">
-        <v>-165.081000</v>
+        <v>-165.08099999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>20732.761921</v>
+        <v>20732.761921000001</v>
       </c>
       <c r="L25" s="1">
-        <v>5.759101</v>
+        <v>5.7591010000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>937.876000</v>
+        <v>937.87599999999998</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.479000</v>
+        <v>-118.479</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>20743.960562</v>
       </c>
       <c r="Q25" s="1">
-        <v>5.762211</v>
+        <v>5.7622109999999997</v>
       </c>
       <c r="R25" s="1">
-        <v>944.375000</v>
+        <v>944.375</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.266000</v>
+        <v>-103.26600000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>20754.445988</v>
+        <v>20754.445987999999</v>
       </c>
       <c r="V25" s="1">
-        <v>5.765124</v>
+        <v>5.7651240000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>950.788000</v>
+        <v>950.78800000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.712000</v>
+        <v>-89.712000000000003</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>20764.691350</v>
+        <v>20764.691350000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>5.767970</v>
+        <v>5.76797</v>
       </c>
       <c r="AB25" s="1">
-        <v>958.069000</v>
+        <v>958.06899999999996</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.517800</v>
+        <v>-80.517799999999994</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>20774.803786</v>
       </c>
       <c r="AF25" s="1">
-        <v>5.770779</v>
+        <v>5.7707790000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>962.970000</v>
+        <v>962.97</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.287100</v>
+        <v>-80.287099999999995</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>20785.054109</v>
+        <v>20785.054109000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>5.773626</v>
+        <v>5.7736260000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>970.993000</v>
+        <v>970.99300000000005</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.222400</v>
+        <v>-88.222399999999993</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>20796.100541</v>
       </c>
       <c r="AP25" s="1">
-        <v>5.776695</v>
+        <v>5.7766950000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>980.270000</v>
+        <v>980.27</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.434000</v>
+        <v>-103.434</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>20806.927183</v>
       </c>
       <c r="AU25" s="1">
-        <v>5.779702</v>
+        <v>5.7797020000000003</v>
       </c>
       <c r="AV25" s="1">
-        <v>991.839000</v>
+        <v>991.83900000000006</v>
       </c>
       <c r="AW25" s="1">
-        <v>-125.297000</v>
+        <v>-125.297</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>20817.554465</v>
+        <v>20817.554465000001</v>
       </c>
       <c r="AZ25" s="1">
         <v>5.782654</v>
       </c>
       <c r="BA25" s="1">
-        <v>1001.580000</v>
+        <v>1001.58</v>
       </c>
       <c r="BB25" s="1">
-        <v>-144.214000</v>
+        <v>-144.214</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>20828.126194</v>
       </c>
       <c r="BE25" s="1">
-        <v>5.785591</v>
+        <v>5.7855910000000002</v>
       </c>
       <c r="BF25" s="1">
-        <v>1047.410000</v>
+        <v>1047.4100000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-229.876000</v>
+        <v>-229.876</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>20839.189956</v>
+        <v>20839.189955999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>5.788664</v>
+        <v>5.7886639999999998</v>
       </c>
       <c r="BK25" s="1">
-        <v>1127.650000</v>
+        <v>1127.6500000000001</v>
       </c>
       <c r="BL25" s="1">
-        <v>-367.221000</v>
+        <v>-367.221</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>20849.503271</v>
+        <v>20849.503271000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>5.791529</v>
+        <v>5.7915289999999997</v>
       </c>
       <c r="BP25" s="1">
-        <v>1260.310000</v>
+        <v>1260.31</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-579.492000</v>
+        <v>-579.49199999999996</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>20860.143976</v>
+        <v>20860.143975999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>5.794484</v>
+        <v>5.7944839999999997</v>
       </c>
       <c r="BU25" s="1">
-        <v>1409.520000</v>
+        <v>1409.52</v>
       </c>
       <c r="BV25" s="1">
-        <v>-806.180000</v>
+        <v>-806.18</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>20871.116938</v>
+        <v>20871.116937999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>5.797532</v>
+        <v>5.7975320000000004</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1572.740000</v>
+        <v>1572.74</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1042.900000</v>
+        <v>-1042.9000000000001</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>20884.332345</v>
+        <v>20884.332344999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>5.801203</v>
+        <v>5.8012030000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1985.260000</v>
+        <v>1985.26</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1595.370000</v>
+        <v>-1595.37</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>20712.575708</v>
       </c>
       <c r="B26" s="1">
-        <v>5.753493</v>
+        <v>5.7534929999999997</v>
       </c>
       <c r="C26" s="1">
-        <v>899.188000</v>
+        <v>899.18799999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-194.762000</v>
+        <v>-194.762</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>20722.927214</v>
+        <v>20722.927213999999</v>
       </c>
       <c r="G26" s="1">
-        <v>5.756369</v>
+        <v>5.7563690000000003</v>
       </c>
       <c r="H26" s="1">
-        <v>915.797000</v>
+        <v>915.79700000000003</v>
       </c>
       <c r="I26" s="1">
-        <v>-165.220000</v>
+        <v>-165.22</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>20733.399248</v>
+        <v>20733.399248000002</v>
       </c>
       <c r="L26" s="1">
-        <v>5.759278</v>
+        <v>5.7592780000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>937.868000</v>
+        <v>937.86800000000005</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.275000</v>
+        <v>-118.27500000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>20744.352144</v>
       </c>
       <c r="Q26" s="1">
-        <v>5.762320</v>
+        <v>5.7623199999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>944.424000</v>
+        <v>944.42399999999998</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.340000</v>
+        <v>-103.34</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>20754.787770</v>
+        <v>20754.787769999999</v>
       </c>
       <c r="V26" s="1">
-        <v>5.765219</v>
+        <v>5.7652190000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>950.743000</v>
+        <v>950.74300000000005</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.693400</v>
+        <v>-89.693399999999997</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>20765.038551</v>
+        <v>20765.038551000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>5.768066</v>
+        <v>5.7680660000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>958.081000</v>
+        <v>958.08100000000002</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.523500</v>
+        <v>-80.523499999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>20775.155481</v>
+        <v>20775.155481000002</v>
       </c>
       <c r="AF26" s="1">
-        <v>5.770877</v>
+        <v>5.7708769999999996</v>
       </c>
       <c r="AG26" s="1">
-        <v>962.984000</v>
+        <v>962.98400000000004</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.233700</v>
+        <v>-80.233699999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>20785.404818</v>
+        <v>20785.404817999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>5.773724</v>
+        <v>5.7737239999999996</v>
       </c>
       <c r="AL26" s="1">
-        <v>970.995000</v>
+        <v>970.995</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.220700</v>
+        <v>-88.220699999999994</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>20796.519630</v>
+        <v>20796.519629999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>5.776811</v>
+        <v>5.7768110000000004</v>
       </c>
       <c r="AQ26" s="1">
-        <v>980.306000</v>
+        <v>980.30600000000004</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.434000</v>
+        <v>-103.434</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>20807.237710</v>
+        <v>20807.237710000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>5.779788</v>
+        <v>5.7797879999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>991.858000</v>
+        <v>991.85799999999995</v>
       </c>
       <c r="AW26" s="1">
-        <v>-125.311000</v>
+        <v>-125.31100000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>20817.859008</v>
+        <v>20817.859007999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>5.782739</v>
+        <v>5.7827390000000003</v>
       </c>
       <c r="BA26" s="1">
-        <v>1001.590000</v>
+        <v>1001.59</v>
       </c>
       <c r="BB26" s="1">
-        <v>-144.193000</v>
+        <v>-144.19300000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>20828.486823</v>
+        <v>20828.486822999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>5.785691</v>
+        <v>5.7856909999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1047.400000</v>
+        <v>1047.4000000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-229.885000</v>
+        <v>-229.88499999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>20839.567411</v>
       </c>
       <c r="BJ26" s="1">
-        <v>5.788769</v>
+        <v>5.7887690000000003</v>
       </c>
       <c r="BK26" s="1">
-        <v>1127.670000</v>
+        <v>1127.67</v>
       </c>
       <c r="BL26" s="1">
-        <v>-367.229000</v>
+        <v>-367.22899999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>20849.897627</v>
+        <v>20849.897626999998</v>
       </c>
       <c r="BO26" s="1">
-        <v>5.791638</v>
+        <v>5.7916379999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1260.280000</v>
+        <v>1260.28</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-579.458000</v>
+        <v>-579.45799999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>20860.573976</v>
       </c>
       <c r="BT26" s="1">
-        <v>5.794604</v>
+        <v>5.7946039999999996</v>
       </c>
       <c r="BU26" s="1">
-        <v>1409.590000</v>
+        <v>1409.59</v>
       </c>
       <c r="BV26" s="1">
-        <v>-806.347000</v>
+        <v>-806.34699999999998</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>20871.547961</v>
       </c>
       <c r="BY26" s="1">
-        <v>5.797652</v>
+        <v>5.7976520000000002</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1572.770000</v>
+        <v>1572.77</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1042.760000</v>
+        <v>-1042.76</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>20884.862109</v>
+        <v>20884.862109000002</v>
       </c>
       <c r="CD26" s="1">
-        <v>5.801351</v>
+        <v>5.8013510000000004</v>
       </c>
       <c r="CE26" s="1">
-        <v>1986.500000</v>
+        <v>1986.5</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1596.450000</v>
+        <v>-1596.45</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>